--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09057335872739637</v>
+        <v>0.09066074685100853</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003652218718958978</v>
+        <v>0.04483461563420067</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007229467807914068</v>
+        <v>0.03661478452229421</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004467695846997427</v>
+        <v>0.04459330840700012</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0706699550065759</v>
+        <v>0.04314328477212371</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07922409662018533</v>
+        <v>0.03642874546175916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006214641852078019</v>
+        <v>0.003504936680096173</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03187956458429114</v>
+        <v>0.009612284885115152</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01700681742908537</v>
+        <v>0.04749688775288664</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03905244669599268</v>
+        <v>0.01383270857951382</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005005750285537339</v>
+        <v>0.008022112483941983</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02320709235267255</v>
+        <v>0.002161025261011684</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03036390614701102</v>
+        <v>0.03536963446567827</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05006849766949845</v>
+        <v>0.02223246916393824</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004763150031583604</v>
+        <v>0.0171470228404495</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07549918655391942</v>
+        <v>0.06345710442351052</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04366976310158207</v>
+        <v>0.04372378147425945</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06275383150334898</v>
+        <v>0.06739237982633088</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01321165495621956</v>
+        <v>0.02155197205189313</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06552776486734854</v>
+        <v>0.05242061786341555</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0299238343933524</v>
+        <v>0.04351635719949232</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03318130029106733</v>
+        <v>0.04126194130527459</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06508732539803051</v>
+        <v>0.06550997153460869</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02833586939740774</v>
+        <v>0.0492520228154579</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01542514083099471</v>
+        <v>0.00780670638371292</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04436957634847222</v>
+        <v>0.02833100528850307</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04725416471418147</v>
+        <v>0.0689665909218672</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.04041736919091136</v>
+        <v>0.04394708875278378</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06655884366707948</v>
+        <v>0.03786863924888081</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.08352741380258365</v>
+        <v>0.1250984880814534</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1172946985619695</v>
+        <v>0.1073063161831123</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07461203754772024</v>
+        <v>0.06635776548040206</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005187626524686474</v>
+        <v>0.01001352326577442</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001171802052386993</v>
+        <v>0.01202854182184126</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07208042193503393</v>
+        <v>0.07052261436545772</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01247463778055062</v>
+        <v>0.0241511106596271</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0503049535720826</v>
+        <v>0.004084887629622722</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04085395460542722</v>
+        <v>0.0195831869811072</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06669616628994085</v>
+        <v>0.09369374400011425</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05743126956208876</v>
+        <v>0.007561155786134736</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06690867725461329</v>
+        <v>0.07018606098463551</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004299232687302291</v>
+        <v>0.005786219683657995</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03358189064863809</v>
+        <v>0.0355601140106426</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002666751914310045</v>
+        <v>0.02853839547088691</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001445160792428613</v>
+        <v>0.00199820659178077</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05904298834943762</v>
+        <v>0.03274867451379707</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005621130878865555</v>
+        <v>0.009832874625628511</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07201548200922256</v>
+        <v>0.00700260029072909</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0162582093041188</v>
+        <v>0.01094347697361317</v>
       </c>
       <c r="X3" t="n">
-        <v>0.008571098253711615</v>
+        <v>0.04430416403664422</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07289654370483166</v>
+        <v>0.09157831466130403</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05327739035738357</v>
+        <v>0.07586242053804426</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06598708112159521</v>
+        <v>0.04028066082324752</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05272567922246169</v>
+        <v>0.0004261591343821478</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0604040770916995</v>
+        <v>0.03050760735361097</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.009699827349843638</v>
+        <v>0.01250739823673432</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.008966932781353857</v>
+        <v>0.07305512511715884</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002042321649554734</v>
+        <v>0.09669597478198123</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0227766547587098</v>
+        <v>0.02418902218143927</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1978647607917022</v>
+        <v>0.1490765829241902</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1096061970599236</v>
+        <v>0.1112908456772898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02367817376577923</v>
+        <v>0.01421558422598003</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06622958053053174</v>
+        <v>0.05363708805555607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01611731291844172</v>
+        <v>0.005090506479721753</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05507105564122805</v>
+        <v>0.06677395392616484</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0167601443777121</v>
+        <v>0.04305558452394816</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003459864178072988</v>
+        <v>0.006265333175557984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06226377697236068</v>
+        <v>0.01840624631839637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006672484469848507</v>
+        <v>0.002755290623995436</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00283629871859715</v>
+        <v>0.04394154364840014</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01219133788989889</v>
+        <v>0.03220458732624888</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05058540311045767</v>
+        <v>0.07204874791385325</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01510471981279079</v>
+        <v>0.006866260101513109</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06022606368130459</v>
+        <v>0.04161190474589239</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00459601601730831</v>
+        <v>0.01437478457323166</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03793109789929817</v>
+        <v>0.02330254243174521</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06023899417427023</v>
+        <v>0.03338192764653499</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06349797187809765</v>
+        <v>0.0438929298820088</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02221922480355457</v>
+        <v>0.06370824509649847</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05405236359377202</v>
+        <v>0.03276709898692139</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01432147609816242</v>
+        <v>0.009284005071211823</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03108313854613385</v>
+        <v>0.003942804188675689</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04231944771998198</v>
+        <v>0.007977620433577708</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06479144061073834</v>
+        <v>0.04563928047490808</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05075659579518797</v>
+        <v>0.05240109775020068</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.06237643078837328</v>
+        <v>0.07521081448307984</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.002634708439915272</v>
+        <v>0.04160938523197279</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.07232713903653167</v>
+        <v>0.07163639345482448</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02565773853165015</v>
+        <v>0.07399843922937979</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.3313172771889094</v>
+        <v>-0.3007727855014379</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1490378814428092</v>
+        <v>0.1697483251931174</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1034537172576254</v>
+        <v>0.07811145765862854</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01048718712608594</v>
+        <v>0.002131789793135682</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008541892793405114</v>
+        <v>0.006865088720074167</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06208458967280169</v>
+        <v>0.04429056737081085</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06455584677419612</v>
+        <v>0.07544745891969085</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03784999436671693</v>
+        <v>0.05943871934835727</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04522001167955291</v>
+        <v>0.01057445358119073</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02810406057089264</v>
+        <v>0.0275661146783071</v>
       </c>
       <c r="N5" t="n">
-        <v>0.003729423852076085</v>
+        <v>0.03037830384599704</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03598080952712042</v>
+        <v>0.01213352339502772</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03048383088571282</v>
+        <v>0.05683047538731258</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.009617815022741033</v>
+        <v>0.01635333182098517</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01799675671250617</v>
+        <v>0.01880179299571149</v>
       </c>
       <c r="S5" t="n">
-        <v>0.003800860459152939</v>
+        <v>0.06526911299545575</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01625056349227904</v>
+        <v>0.02599676936187607</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002691957690071964</v>
+        <v>0.05638191276671843</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06095567900286449</v>
+        <v>0.05116180496574058</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06689291872670129</v>
+        <v>0.08618943566163612</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09024843977852633</v>
+        <v>0.01169072701996924</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01069315194607876</v>
+        <v>0.001593258814758467</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.07293994186079578</v>
+        <v>0.0724180554434576</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02268193094875115</v>
+        <v>0.05555676005051299</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07553324630409108</v>
+        <v>0.04190749183006157</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0975398776592737</v>
+        <v>0.02752349233373365</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.004026472732715722</v>
+        <v>0.000838086343272474</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.005395604508485355</v>
+        <v>0.007221754894736007</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01829282441565196</v>
+        <v>0.01348253175252632</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001638297747191726</v>
+        <v>0.04384572825031553</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.4010546467530358</v>
+        <v>-0.3635617565518143</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2269650417942665</v>
+        <v>0.22623562007516</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05654894072930002</v>
+        <v>0.00748555984596538</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07571755619816943</v>
+        <v>0.08237671827676737</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00131506239847714</v>
+        <v>0.004919337199682529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0181803862952404</v>
+        <v>0.005000407802477237</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03942487283748525</v>
+        <v>0.01296555828175348</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01054452531344996</v>
+        <v>0.009951367504731998</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0279395169048904</v>
+        <v>0.0239039896204662</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02688242757167423</v>
+        <v>0.08307884866646337</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01504228347913362</v>
+        <v>0.002957214985798418</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01882581355078195</v>
+        <v>0.006320628639420012</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03024222553548142</v>
+        <v>0.06926729901710774</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0120370345553267</v>
+        <v>0.08129146743608089</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02487713375385204</v>
+        <v>0.05637954845059315</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01229162641149896</v>
+        <v>0.03343638002497257</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03766033259390729</v>
+        <v>0.08080955573239355</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002735117798163339</v>
+        <v>0.006798226997034809</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05778662003017353</v>
+        <v>0.04244020314350401</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07402762307752654</v>
+        <v>0.04232905187988693</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04139200288407566</v>
+        <v>0.07611833603226373</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0620379248021582</v>
+        <v>0.01907281647641512</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05538756285255601</v>
+        <v>0.01810389104068565</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0536154956344141</v>
+        <v>0.04425746112360211</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04812353197633702</v>
+        <v>0.0739160149360155</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01109778070649722</v>
+        <v>0.01027023540877974</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.007209529421903703</v>
+        <v>0.007532903984537785</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.07306485861037391</v>
+        <v>0.05492540449045591</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0584477739008949</v>
+        <v>0.03069561310686793</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.04754444017625721</v>
+        <v>0.0133959598952772</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1990908364920385</v>
+        <v>0.1543159133413471</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2859348970250918</v>
+        <v>0.2842547019714225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04296320352022186</v>
+        <v>0.03200040624717049</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01256974642363616</v>
+        <v>0.01696676828324873</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06890712208832807</v>
+        <v>0.05409501557279355</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009554050527290602</v>
+        <v>2.933565023703222e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01590248288333924</v>
+        <v>0.003731046193092994</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05735720643104007</v>
+        <v>0.07603282356459456</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009238508700578405</v>
+        <v>0.009640973808703754</v>
       </c>
       <c r="M7" t="n">
-        <v>0.069977195390495</v>
+        <v>0.06711000063665101</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02762650760278779</v>
+        <v>0.01917889959568193</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03977755208838535</v>
+        <v>0.05987284664955186</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03195317629304301</v>
+        <v>0.03758189430072201</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.003700371711475373</v>
+        <v>0.005634806311677149</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06193582481923006</v>
+        <v>0.04654740385281988</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0050329600808093</v>
+        <v>0.0728154212948731</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07019799883579844</v>
+        <v>0.08011595062080352</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01592709931352102</v>
+        <v>0.01339771148606091</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001124588834408602</v>
+        <v>0.0276118616652268</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05463188808566045</v>
+        <v>0.0727946682993454</v>
       </c>
       <c r="X7" t="n">
-        <v>0.05095094723589853</v>
+        <v>0.03207379477825976</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02958467847544429</v>
+        <v>0.001570089079610378</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02543136048567882</v>
+        <v>0.007996869927784296</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.05903026281147092</v>
+        <v>0.0562932058248669</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.04651613867597602</v>
+        <v>0.0151471235358974</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.05191054730892501</v>
+        <v>0.03460647722790726</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.00893675106730403</v>
+        <v>0.009664938161399904</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03040681770464424</v>
+        <v>0.05543135202100779</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02840242551354386</v>
+        <v>0.01019520181072566</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.07045258709106549</v>
+        <v>0.08186311359928591</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.268532681745647</v>
+        <v>0.2621395485080035</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2487256025406445</v>
+        <v>0.2498921559494668</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004507540213502334</v>
+        <v>0.02850620363474886</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06687743153684077</v>
+        <v>0.07601288768586081</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01794171757283829</v>
+        <v>0.005403863465114591</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04125937103155955</v>
+        <v>0.001368087499064842</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04221895711359311</v>
+        <v>0.0302904206650483</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01437504839322646</v>
+        <v>0.01532887737953686</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001220708038042003</v>
+        <v>0.0483228465871601</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0640869317894841</v>
+        <v>0.02741796578847752</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0108058214328509</v>
+        <v>0.03339728164883021</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01292099928950461</v>
+        <v>0.002249912438233119</v>
       </c>
       <c r="P8" t="n">
-        <v>0.008784519379500529</v>
+        <v>0.02024898915136524</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02478844636988975</v>
+        <v>0.05575499230221209</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04036551621169957</v>
+        <v>0.01114456282924925</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04639133166887131</v>
+        <v>0.04167640852132577</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04177750281812059</v>
+        <v>0.04135805209535053</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008393658536936348</v>
+        <v>0.003425088437077636</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06962776924707317</v>
+        <v>0.0575299080103021</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07798595776481997</v>
+        <v>0.06533448562039132</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05571743791349928</v>
+        <v>0.0441966539054603</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04690355144065993</v>
+        <v>0.0395712442600932</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03160529374081571</v>
+        <v>0.03176233969177159</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.06054770222639749</v>
+        <v>0.03826007321133178</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.08660382080433773</v>
+        <v>0.06023082443100952</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.02221963527365366</v>
+        <v>0.03705944722082776</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.004015884490280796</v>
+        <v>0.05595678965518885</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01541962271213254</v>
+        <v>0.04198430641261554</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.05716667240679566</v>
+        <v>0.03400190125494981</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.02547115058307363</v>
+        <v>0.05220558619740231</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.106295520785397</v>
+        <v>0.1004568583382898</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3064579579004384</v>
+        <v>0.2992733010708755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06741184330189789</v>
+        <v>0.1001135142194981</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001562486254197766</v>
+        <v>0.03351394745269779</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07921366056968113</v>
+        <v>0.03670227393552562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008671250776273596</v>
+        <v>0.008715858303172324</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05637151854727791</v>
+        <v>0.001458472786254108</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07273285792183987</v>
+        <v>0.0830178502383572</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04255142220365464</v>
+        <v>0.03642603970698495</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009094440266363706</v>
+        <v>0.04047920059924636</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00355952148317147</v>
+        <v>0.04403004212442336</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05559185233814856</v>
+        <v>0.08351638369674615</v>
       </c>
       <c r="P9" t="n">
-        <v>0.003798283012651658</v>
+        <v>0.0190175063612958</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06316750432368444</v>
+        <v>0.009614391314016184</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0116809896373815</v>
+        <v>0.03913335577718735</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07917938242626735</v>
+        <v>0.07629084786133343</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03579789390631111</v>
+        <v>0.0212210204691884</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002279820610140669</v>
+        <v>0.007408056015718701</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02695982109417813</v>
+        <v>0.008063151628966184</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004608180790260514</v>
+        <v>0.1131607056055852</v>
       </c>
       <c r="X9" t="n">
-        <v>0.06450833438432783</v>
+        <v>0.03967058346521616</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.008975606168007933</v>
+        <v>0.02538637177182507</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0489221781432328</v>
+        <v>0.01357592781032951</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.004088033517573855</v>
+        <v>0.004936199732220967</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03104861170591513</v>
+        <v>0.02165340872113251</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.04233237391891282</v>
+        <v>0.01601734626967108</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.03239103351391356</v>
+        <v>0.006849540377313577</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0233677063243812</v>
+        <v>0.08100759356261553</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.05967959622964719</v>
+        <v>0.01815298531831192</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.06045379663070567</v>
+        <v>0.01086742487516637</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1297737551123886</v>
+        <v>0.1436223391791777</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1609010023928598</v>
+        <v>0.1575658619190011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04206765776332709</v>
+        <v>0.01858038564262963</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08285295863623557</v>
+        <v>0.03194612580669351</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002261396120093943</v>
+        <v>0.002811826175332477</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05596527570816125</v>
+        <v>0.003517184881248088</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02464633879103919</v>
+        <v>0.02610328520503131</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008998125809856256</v>
+        <v>0.03537612537849033</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03241961624313543</v>
+        <v>0.04445409204310133</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005322245475897313</v>
+        <v>0.005271491715735293</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02055277095432452</v>
+        <v>0.03019856130048797</v>
       </c>
       <c r="O10" t="n">
-        <v>0.009975594646065752</v>
+        <v>0.01512481114625756</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02821665472283318</v>
+        <v>0.007098463875276882</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02298987409637875</v>
+        <v>0.06556496494787911</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05880472190434561</v>
+        <v>0.04606554296426332</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01253825027405409</v>
+        <v>0.02850976077581425</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07400836060174845</v>
+        <v>0.07904710119636439</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02477294683526659</v>
+        <v>0.006121257899701094</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04386350590083429</v>
+        <v>0.01363372391374676</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02789857809280777</v>
+        <v>0.07609803573425501</v>
       </c>
       <c r="X10" t="n">
-        <v>0.07785070076434328</v>
+        <v>0.001187263834415033</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.05198471784615911</v>
+        <v>0.08905131622018528</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03326523024364997</v>
+        <v>0.06166169049166329</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0130735543001312</v>
+        <v>0.02738284515161525</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02904683320246729</v>
+        <v>0.1027896656438801</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02490418623475677</v>
+        <v>0.0221910548280325</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02927576720843345</v>
+        <v>0.01417948143209367</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.04627924731432907</v>
+        <v>0.01448906532776809</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03831667299959017</v>
+        <v>0.03784901912561414</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.07784821730973451</v>
+        <v>0.09369585734242425</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.05279239863215082</v>
+        <v>0.03627581027815024</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1880026581515758</v>
+        <v>0.182872599719027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08144593741579478</v>
+        <v>0.06515971225459366</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06519981553701462</v>
+        <v>0.02519943535087628</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005576879645682715</v>
+        <v>0.001821202556256865</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04429020282994731</v>
+        <v>0.01216824280451883</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05592774552670097</v>
+        <v>0.06197098942959788</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06470048079020731</v>
+        <v>0.05199538023063918</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004373945548349713</v>
+        <v>0.002074315157749603</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005862276716825561</v>
+        <v>0.04648167150835646</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01501233631426516</v>
+        <v>0.001767575155260577</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004459604185207411</v>
+        <v>0.01260796604239106</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01773639721061422</v>
+        <v>0.0624140530998864</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04962141754250568</v>
+        <v>0.05828951265571531</v>
       </c>
       <c r="R11" t="n">
-        <v>0.05531319827007603</v>
+        <v>0.06984229308322189</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00235111718203285</v>
+        <v>0.01516951658110439</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06426865964789061</v>
+        <v>0.05612399096167978</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04345287655419198</v>
+        <v>0.03756426154093259</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0365722430942455</v>
+        <v>0.06570346111111425</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02204597753269582</v>
+        <v>0.03843140017263131</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07471923571686354</v>
+        <v>0.01950501765097937</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001922829884408454</v>
+        <v>0.00313161090554761</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.007181282766438735</v>
+        <v>0.02952707500751552</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.05728537668555836</v>
+        <v>0.03036476024972764</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06390060121667285</v>
+        <v>0.01758092283128041</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01520288309900087</v>
+        <v>0.06109839871138301</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.07476938744058828</v>
+        <v>0.06289582079917048</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.04458103431943141</v>
+        <v>0.04660191394241699</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.008179955591693362</v>
+        <v>0.008374458616219604</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01404630173509595</v>
+        <v>0.03613504158923301</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0540248263380912</v>
+        <v>0.06507094313952065</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.145064336080371</v>
+        <v>0.1431534540654342</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03094241698727141</v>
+        <v>0.06585200772258235</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03395935766845818</v>
+        <v>0.06606312734347852</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01201967650150307</v>
+        <v>0.01358338571034414</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02470368461426403</v>
+        <v>0.03707880117058942</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0196196830626424</v>
+        <v>0.0009137300236110877</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01021560053141376</v>
+        <v>0.01799839768785514</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07507980178905137</v>
+        <v>0.01979363466640203</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0639515116299442</v>
+        <v>0.003426958612624305</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01363306729891637</v>
+        <v>0.05060621334619467</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00300686082489494</v>
+        <v>0.05373641404400755</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01801522785230839</v>
+        <v>0.01538319005340423</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0219723240108568</v>
+        <v>0.04073139336072917</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001495905466727888</v>
+        <v>0.00932096995471029</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05967564874509118</v>
+        <v>0.0003676722240720415</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06851195881939641</v>
+        <v>0.0454397701915125</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02520455049979734</v>
+        <v>0.001314319127366667</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06232628960157004</v>
+        <v>0.06248577705074206</v>
       </c>
       <c r="W12" t="n">
-        <v>0.04699835822126228</v>
+        <v>0.03225391433154751</v>
       </c>
       <c r="X12" t="n">
-        <v>0.003895587987836189</v>
+        <v>0.05661614705314557</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01070564303470093</v>
+        <v>0.07201068976280235</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.06447669973793062</v>
+        <v>0.0006983377676138414</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.06511622471011957</v>
+        <v>0.01575419279684605</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.08282601752519073</v>
+        <v>0.06517258111601484</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0123531861204831</v>
+        <v>0.05189625918036766</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002639443183800428</v>
+        <v>0.002295768627706234</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.04731519675395431</v>
+        <v>0.06656001573811764</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.03866668452891656</v>
+        <v>0.06246014023723222</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.08067339229169751</v>
+        <v>0.07018619109837987</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.06543716658195056</v>
+        <v>0.1359838885717935</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1561908951849465</v>
+        <v>0.1611408754394861</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06334731732439096</v>
+        <v>0.101702794727157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01452555472212002</v>
+        <v>0.02021085404018072</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04078555515066334</v>
+        <v>0.09790942828204735</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08015971842270853</v>
+        <v>0.05736380377553049</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06303509349910484</v>
+        <v>0.01742761538154491</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02898909607234212</v>
+        <v>0.04457167389834801</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001255591507517845</v>
+        <v>0.004865251199947883</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02653447466843655</v>
+        <v>0.00444144513566372</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004150983840769039</v>
+        <v>0.06334687362273261</v>
       </c>
       <c r="O13" t="n">
-        <v>0.009051958411731455</v>
+        <v>0.01684244194690045</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08064058865063967</v>
+        <v>0.02645854346608887</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01595947995543269</v>
+        <v>0.007560435201908601</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08196266873468555</v>
+        <v>0.0907848781668132</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04830713813606712</v>
+        <v>0.07888028228374119</v>
       </c>
       <c r="T13" t="n">
-        <v>0.06698098775282008</v>
+        <v>0.04177655146989704</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0008112545626097342</v>
+        <v>0.002524808668997631</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07388685295306643</v>
+        <v>0.05491329771576483</v>
       </c>
       <c r="W13" t="n">
-        <v>0.003527770538492448</v>
+        <v>0.0502555240477556</v>
       </c>
       <c r="X13" t="n">
-        <v>0.00461347696307654</v>
+        <v>0.007748321519231527</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01456317383579268</v>
+        <v>0.02072669668771629</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.005774048735099839</v>
+        <v>0.02299310295628959</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06378341971963757</v>
+        <v>0.01971506286521027</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0005232430118386958</v>
+        <v>0.0318226573978975</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.005311882226676106</v>
+        <v>0.03678478620776354</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02573444862051101</v>
+        <v>0.02926369352393229</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.08495328052983327</v>
+        <v>0.02613260311266864</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.03825750791570861</v>
+        <v>0.003035464722527893</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.05257343353822727</v>
+        <v>0.01994110797574252</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.103106853491631</v>
+        <v>0.1103171616418648</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1269611843877425</v>
+        <v>0.1281770057664383</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01226743236656533</v>
+        <v>0.05995244189108729</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03165236775421715</v>
+        <v>0.05124856898376216</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01554067596650951</v>
+        <v>0.04521800349872741</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009416784129131883</v>
+        <v>0.01395994277275828</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0357256754116316</v>
+        <v>0.002019186348761971</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006034838411633232</v>
+        <v>0.0006114439210168129</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04104827485829494</v>
+        <v>0.05800462099741579</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03783221453587172</v>
+        <v>0.01556736595584387</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01340865264145284</v>
+        <v>0.01890920793315339</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005877336822597494</v>
+        <v>0.01903990271494378</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02857243437119576</v>
+        <v>0.02519077625430484</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02753544340875786</v>
+        <v>0.007960976596684519</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02366228182780156</v>
+        <v>0.04144762967096771</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05824482852778343</v>
+        <v>0.07631732607217846</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05054453980872164</v>
+        <v>0.06183047816053894</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0208951180934865</v>
+        <v>0.001167083715494335</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01594962657623533</v>
+        <v>0.009786328818580634</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07292011745560262</v>
+        <v>0.04660694070276458</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00460180525087984</v>
+        <v>0.0197371559494037</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06800174533325037</v>
+        <v>0.02072635072807351</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.00953864992306085</v>
+        <v>0.059668604879819</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.05246579963710266</v>
+        <v>0.04638039463233951</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.08058159253010559</v>
+        <v>0.0785408677740584</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01577284032612693</v>
+        <v>0.0613535734437419</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.06805762692556212</v>
+        <v>0.01072681992964879</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.06900293811600026</v>
+        <v>0.07442999817544471</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06029825981408026</v>
+        <v>0.05963791581070021</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.06455009917634047</v>
+        <v>0.01396009366778563</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2072649286425547</v>
+        <v>0.2178622694937314</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1423101325502204</v>
+        <v>0.1421376101719371</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0082137377060115</v>
+        <v>0.007404808840456852</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02681268241005917</v>
+        <v>0.07390796367571896</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04649781489869575</v>
+        <v>0.06751844833122315</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02178547903285817</v>
+        <v>0.07045146648764053</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009864596776871057</v>
+        <v>0.004162608256892121</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07378098241765631</v>
+        <v>0.07310439074368595</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02745580520731959</v>
+        <v>0.005146771975451677</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005713038142601461</v>
+        <v>0.03765965452422062</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07614051134024104</v>
+        <v>0.07580067446609901</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02197474340465901</v>
+        <v>0.01253122006446809</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07371254269326617</v>
+        <v>0.05075533327805148</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04927829927971845</v>
+        <v>0.001049258640281738</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01112134151181098</v>
+        <v>0.003561362514561773</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04896650929361065</v>
+        <v>0.002991291758479515</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05199027272665917</v>
+        <v>0.0539140014805067</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01907979026156999</v>
+        <v>0.01606468039461866</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0134128240603136</v>
+        <v>0.065268868424774</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01287702591939651</v>
+        <v>0.005164647091477197</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001749879244827418</v>
+        <v>0.07299874994804349</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01921076355938922</v>
+        <v>0.06770082005281833</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.06375633354560224</v>
+        <v>0.01070357132324854</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.02172923109352346</v>
+        <v>0.00674865006189878</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.06883163659626924</v>
+        <v>0.02913424938379499</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.002633533090282265</v>
+        <v>0.0218461405205045</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03283035367018722</v>
+        <v>0.03154968505069666</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.06166678699862566</v>
+        <v>0.06284418681408238</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.04964661089390022</v>
+        <v>0.04945866278429313</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0792668742240745</v>
+        <v>0.0205578331120111</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2562618257963989</v>
+        <v>0.2812597225376273</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.09766806660804318</v>
+        <v>0.09701229878422601</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02394407569413497</v>
+        <v>0.05229547272089279</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03584491919730058</v>
+        <v>0.01027483112488443</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005210385278903093</v>
+        <v>0.005554556868454531</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009951838987177651</v>
+        <v>0.01042719914845228</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07025851038043657</v>
+        <v>0.004095067200847739</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03927465554109132</v>
+        <v>0.02199638507989727</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07330450593015979</v>
+        <v>0.0547373390148893</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02132607106752419</v>
+        <v>0.06325478478904549</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03967149642312367</v>
+        <v>0.008640855273108568</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003502064865350692</v>
+        <v>0.007389599255449469</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01216955337102039</v>
+        <v>0.02082707574470822</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03808988666419737</v>
+        <v>0.006863780505276782</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05217663794243915</v>
+        <v>0.06118425501148576</v>
       </c>
       <c r="S16" t="n">
-        <v>0.004899368493351614</v>
+        <v>0.03862103033821448</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0570169454321464</v>
+        <v>0.05263114407833311</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01806100178708197</v>
+        <v>0.04386552802766026</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04625586519438476</v>
+        <v>0.03959706861319394</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06869546342075721</v>
+        <v>0.05835918965362012</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01751635310443487</v>
+        <v>0.0003184840810834363</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.04896917882971311</v>
+        <v>0.06350636443680913</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01230883465225241</v>
+        <v>0.03156261232512789</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01565053638381772</v>
+        <v>0.01827223813887453</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05923698867317218</v>
+        <v>0.0631567731135199</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01382886752769268</v>
+        <v>0.0442595171674897</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.06071871521855463</v>
+        <v>0.04724922844171447</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0323907184313884</v>
+        <v>0.05670727069822493</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0429554395259714</v>
+        <v>0.05487546316744089</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0767711219824212</v>
+        <v>0.05947688598130061</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1187750088718399</v>
+        <v>0.1195708150551276</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1081510479487573</v>
+        <v>0.1102226317544236</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01495733806800885</v>
+        <v>0.01157408929210084</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06316875718083823</v>
+        <v>0.01400968567311721</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000963626552875079</v>
+        <v>0.02733507705361668</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05915112985947424</v>
+        <v>0.0467807827231187</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01819328480366494</v>
+        <v>0.001082019291172643</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01103186491133165</v>
+        <v>0.03654163648988079</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008563334735306009</v>
+        <v>0.04394761783902191</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02488244790341058</v>
+        <v>0.01138077255128857</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0663863909385095</v>
+        <v>0.05447422530570296</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005874160324910477</v>
+        <v>0.01689252862106532</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01824102832112147</v>
+        <v>0.05025469980160308</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05546007332412316</v>
+        <v>0.02838665142921228</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01437562599719311</v>
+        <v>0.008492319190094022</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0691699067555915</v>
+        <v>0.04307493498073135</v>
       </c>
       <c r="T17" t="n">
-        <v>0.05103010263797374</v>
+        <v>0.06969870593731149</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0452274135931943</v>
+        <v>0.004051512663886012</v>
       </c>
       <c r="V17" t="n">
-        <v>0.06242693099656751</v>
+        <v>0.03922383317904711</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02150247001297833</v>
+        <v>0.01906269323154565</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06099547496441272</v>
+        <v>0.09839028419506395</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04587993242830737</v>
+        <v>0.09015830579224555</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03441818447034851</v>
+        <v>0.01028833838824768</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01856098379897355</v>
+        <v>0.02042296986320528</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.004191284989732647</v>
+        <v>0.0304634723932454</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.03002194673028349</v>
+        <v>0.0136969162899389</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.04962791378068667</v>
+        <v>0.07138158404059156</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.06265203902116548</v>
+        <v>0.008808107378108953</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.05317700899868343</v>
+        <v>0.08367519790721738</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.02986934390033349</v>
+        <v>0.04645103849861892</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.145693736488508</v>
+        <v>0.1639186107809208</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.09285806609900396</v>
+        <v>0.09247990536202283</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02460416730561832</v>
+        <v>0.02321255918505471</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006412707859907324</v>
+        <v>0.01228957874285398</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04754141445709244</v>
+        <v>0.0003166110552391462</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04987126555376652</v>
+        <v>0.02321658168889995</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02088973642441248</v>
+        <v>0.05901273160048222</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01706256211788951</v>
+        <v>0.05431437406041536</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05827668936024965</v>
+        <v>0.03877212602958782</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07001161714621296</v>
+        <v>0.06628557386991231</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02960208506656166</v>
+        <v>0.04275538069239779</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02163707267070073</v>
+        <v>0.02102454608601295</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03837339751463626</v>
+        <v>0.06017171733835623</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03407296342767716</v>
+        <v>0.01367689151942981</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06406704116944097</v>
+        <v>0.07128597407993766</v>
       </c>
       <c r="S18" t="n">
-        <v>0.002808582477628766</v>
+        <v>0.01335719498803097</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06455726891687151</v>
+        <v>0.02919352178853097</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02751105886194162</v>
+        <v>0.02133903442766369</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06789584079261005</v>
+        <v>0.06834390583285364</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06486769907807062</v>
+        <v>0.05419106900480508</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01188866712554564</v>
+        <v>0.02770867108764048</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03984267689292176</v>
+        <v>0.04437081621394452</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01330189985490609</v>
+        <v>0.03280890855194854</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02952422484473068</v>
+        <v>0.00769883176346692</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.06282398693640251</v>
+        <v>0.07195329402646865</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.04216805594287959</v>
+        <v>0.05512237027310166</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01578978233732867</v>
+        <v>0.01802626911625155</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.03275212336903864</v>
+        <v>0.05969090094279173</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.03696331379859819</v>
+        <v>0.005411886320878041</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.004882098696359661</v>
+        <v>0.004448679713043456</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.003445275130597102</v>
+        <v>0.001736692358082765</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1103812334069767</v>
+        <v>0.1072196513078382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01109224423651891</v>
+        <v>0.001514860196293665</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006952265485729922</v>
+        <v>0.04723833363406362</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003092989528416303</v>
+        <v>0.007500923061770395</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02890484258350437</v>
+        <v>0.01248598583458845</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009407740501366144</v>
+        <v>0.01355529533797321</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08506783635650673</v>
+        <v>0.04096737226419108</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08230995916417558</v>
+        <v>0.09007359840953802</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05350843786099401</v>
+        <v>0.07511415702664856</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06659051285773683</v>
+        <v>0.0380455538248582</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0004178361528588982</v>
+        <v>0.003959213889187135</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0906701814111827</v>
+        <v>0.088949604995834</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01094222386414552</v>
+        <v>0.01090622978190668</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02344451315163097</v>
+        <v>0.0173478551620673</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07518791542201916</v>
+        <v>0.02338559479402956</v>
       </c>
       <c r="T19" t="n">
-        <v>0.001625939709362154</v>
+        <v>0.0004296967487884785</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0355316792964116</v>
+        <v>0.04209937521112155</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0175485935714218</v>
+        <v>0.01020176733336044</v>
       </c>
       <c r="W19" t="n">
-        <v>3.077295010234726e-05</v>
+        <v>0.08185764055604573</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02132236447285501</v>
+        <v>0.05418067314232779</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.04901644057768782</v>
+        <v>0.005109994230013547</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.004523577293277889</v>
+        <v>0.02560815276586775</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.06604324384182535</v>
+        <v>0.07079076542658112</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.03623161367766606</v>
+        <v>0.003197534441288733</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.05367037375319494</v>
+        <v>0.06204853582906249</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.09654204956627556</v>
+        <v>0.08231731930652907</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01934702727065397</v>
+        <v>0.04256967189347122</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.01790830070561548</v>
+        <v>0.0477220227569797</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.03306852473686391</v>
+        <v>0.0008222721456125411</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.05172026904704909</v>
+        <v>0.07267349195033909</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1067461119380819</v>
+        <v>0.1069521879619067</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05102996426154114</v>
+        <v>0.04351918610031062</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003253478921617939</v>
+        <v>0.001482709467536127</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07891440096884163</v>
+        <v>0.04416144168206057</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02827032445001571</v>
+        <v>0.06492501293804902</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0130524577775628</v>
+        <v>0.0135128896281589</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01231974837058458</v>
+        <v>0.001807079670893055</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004994667994733485</v>
+        <v>0.07055471490382323</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03551008341591276</v>
+        <v>0.01907159731361486</v>
       </c>
       <c r="N20" t="n">
-        <v>0.002430425593477155</v>
+        <v>0.013492341401706</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03704662813127844</v>
+        <v>0.004040084308226421</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05110051565875226</v>
+        <v>0.008854145577015957</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0419483215150835</v>
+        <v>0.02804917626526432</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05296206174858725</v>
+        <v>0.05704208843793078</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01077788953528514</v>
+        <v>0.04461531290289409</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0713938109371647</v>
+        <v>0.05436932217961226</v>
       </c>
       <c r="U20" t="n">
-        <v>0.002663333347033922</v>
+        <v>0.009691296921877963</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06992932346861043</v>
+        <v>0.07102302239704719</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02569318806029432</v>
+        <v>0.05152518972619984</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01353230841721147</v>
+        <v>0.03448836176823695</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01598557242582407</v>
+        <v>0.03147920526898737</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02540522748046736</v>
+        <v>0.01174647299917801</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02394784431399093</v>
+        <v>0.04662113085200105</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06685923926881307</v>
+        <v>0.03234198286250304</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02827879229147652</v>
+        <v>0.03551557251558289</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.08241187246796598</v>
+        <v>0.007215033395681204</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.07241620845486141</v>
+        <v>0.06577218474568966</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.03332235229255614</v>
+        <v>0.06543093632046773</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.04747808945991188</v>
+        <v>0.06765250744945106</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1205916757502264</v>
+        <v>0.09259991708955781</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1209800736130405</v>
+        <v>0.1176668668307561</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0114531066920709</v>
+        <v>0.021300855911082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07641523012470997</v>
+        <v>0.00166513700228612</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002570884627207697</v>
+        <v>0.009169890473066114</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02010430563412929</v>
+        <v>0.009848831507405833</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02323069527446102</v>
+        <v>0.006249309880039164</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05662914032869498</v>
+        <v>0.07047440376834078</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0419436273782046</v>
+        <v>0.002129685781118195</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001524460858517732</v>
+        <v>0.002468236318331132</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03911078917116011</v>
+        <v>0.07264516600863795</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004330757072975637</v>
+        <v>0.02014939857159817</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05507935443826047</v>
+        <v>0.06734854804732442</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03103790222976291</v>
+        <v>0.05100950435112291</v>
       </c>
       <c r="R21" t="n">
-        <v>0.005857610313425634</v>
+        <v>0.04332692914319759</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0372370023106126</v>
+        <v>0.06788156286532565</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03196245557947523</v>
+        <v>0.01137211070525629</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03955401863292965</v>
+        <v>0.06606791340162642</v>
       </c>
       <c r="V21" t="n">
-        <v>0.05169584457655961</v>
+        <v>0.01985338519467419</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03259974835511555</v>
+        <v>0.06504847605082895</v>
       </c>
       <c r="X21" t="n">
-        <v>0.009105955581997227</v>
+        <v>0.005637281732280341</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04124587882934362</v>
+        <v>0.06919498938570165</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.07579366191972232</v>
+        <v>0.04015977989932383</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.09016596558154821</v>
+        <v>0.02444687495154633</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.006200200881530567</v>
+        <v>0.05336766128362425</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.08265837462566329</v>
+        <v>0.06623750826467273</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.03800713568562444</v>
+        <v>0.06334344054047591</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.03740056662902492</v>
+        <v>0.01346180364946791</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0220208425250769</v>
+        <v>0.03266892755388275</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.03506448414219487</v>
+        <v>0.02347238775776239</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.06102809514236914</v>
+        <v>0.0952597081214019</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.111988861275337</v>
+        <v>0.1108067405685342</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05689811077127513</v>
+        <v>0.005559973248365378</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0005304188549155794</v>
+        <v>0.009551413125065208</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06010312956254184</v>
+        <v>0.003289006432976852</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06711131276573853</v>
+        <v>0.01190269816787577</v>
       </c>
       <c r="J22" t="n">
-        <v>0.008606243161587937</v>
+        <v>0.007879758312396234</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01905354238916383</v>
+        <v>0.05624443345521861</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008022483265592354</v>
+        <v>0.02109888782769537</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01059818780880138</v>
+        <v>0.01254664392855543</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04900198356918425</v>
+        <v>0.05680272941070899</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01032130608708603</v>
+        <v>0.02286390159453966</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04317592728908208</v>
+        <v>0.03522735452901234</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.03452795036506979</v>
+        <v>0.007094402672315029</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02279209013392409</v>
+        <v>0.05903771742555228</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02071097987073821</v>
+        <v>0.04834456868820664</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06169721939181287</v>
+        <v>0.06677008146062396</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01033388662572872</v>
+        <v>0.0002022525172456634</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05909027949361997</v>
+        <v>0.07176719312608394</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06471875105393336</v>
+        <v>0.01671878267269787</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0598698642175701</v>
+        <v>0.0586665666884426</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.06737388566090757</v>
+        <v>0.0453089302602532</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.007925827183034402</v>
+        <v>0.002888541012057679</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05049024421044812</v>
+        <v>0.05468268648621422</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0458264406121058</v>
+        <v>0.07960556153985217</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0350310104403382</v>
+        <v>0.07590067190645845</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.02917543972683953</v>
+        <v>0.03136995770587247</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.03578258219350342</v>
+        <v>0.04175252006549365</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0155188694150634</v>
+        <v>0.03209170487401151</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.04571203388039358</v>
+        <v>0.06483106086620888</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.2202183732317877</v>
+        <v>0.1577322707618889</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1257792477353074</v>
+        <v>0.1198681074003058</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05795240625689569</v>
+        <v>0.06044495425595763</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02155401238826108</v>
+        <v>0.01178803180519343</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004076451074347421</v>
+        <v>0.01019260225715499</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06903246408256963</v>
+        <v>0.01353896761568332</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06709380364465067</v>
+        <v>0.02946372179643898</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03910215539490434</v>
+        <v>0.02131657468017597</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02075182035892589</v>
+        <v>0.0005324664038230389</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05006623596665233</v>
+        <v>0.04119566587112281</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0008781250860521228</v>
+        <v>0.002386902898665133</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03099861909113884</v>
+        <v>0.01360325799560316</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04913577051578881</v>
+        <v>0.03283755432790356</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0505047817637175</v>
+        <v>0.08755699119505465</v>
       </c>
       <c r="R23" t="n">
-        <v>0.003547313696082999</v>
+        <v>0.05544596566795867</v>
       </c>
       <c r="S23" t="n">
-        <v>0.04913661535825647</v>
+        <v>0.0198385312760057</v>
       </c>
       <c r="T23" t="n">
-        <v>0.05115011493028604</v>
+        <v>0.07853579969737307</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01158140802998854</v>
+        <v>0.02407040862715665</v>
       </c>
       <c r="V23" t="n">
-        <v>0.003546009000591565</v>
+        <v>0.02429037601850742</v>
       </c>
       <c r="W23" t="n">
-        <v>0.05676913093844297</v>
+        <v>0.03154539980066405</v>
       </c>
       <c r="X23" t="n">
-        <v>0.06884033559185387</v>
+        <v>0.08469037880423497</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02825128708182394</v>
+        <v>0.0636203729229696</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0306259368542104</v>
+        <v>0.05462039723278455</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.001630053066918067</v>
+        <v>0.02447932729644882</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05982271630398164</v>
+        <v>0.04454766501190575</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.04297350820632408</v>
+        <v>0.00290335823475381</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0633305112708611</v>
+        <v>0.07065173070716006</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.02035376910072459</v>
+        <v>0.03718051502129462</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.02366358465612447</v>
+        <v>0.006601462842084783</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.02363106028962513</v>
+        <v>0.05212061973592092</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2650009786225336</v>
+        <v>0.2152591697333179</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.09303696161559138</v>
+        <v>0.08771931537860701</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02471463967276487</v>
+        <v>0.02832548812526619</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04317012155821123</v>
+        <v>0.04354107839288698</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04172785660775619</v>
+        <v>0.005135004169143426</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002213396970235729</v>
+        <v>0.008262885547646063</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001221451909835107</v>
+        <v>0.0005596377275500092</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06634283479039722</v>
+        <v>0.01629643006534133</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04200697986467566</v>
+        <v>0.001737162498152821</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03724379285826274</v>
+        <v>0.00451596659997727</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06145171574240172</v>
+        <v>0.05769476840764698</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02913866052627541</v>
+        <v>0.05567209057867763</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01588141716261932</v>
+        <v>0.006440891662894231</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.006718780644214517</v>
+        <v>0.04637772230716484</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04420954098117853</v>
+        <v>0.04830002252874289</v>
       </c>
       <c r="S24" t="n">
-        <v>0.02224094697504646</v>
+        <v>0.0009138742874027663</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04053482508028491</v>
+        <v>0.02225040005103336</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01505306900328823</v>
+        <v>0.03480371294671245</v>
       </c>
       <c r="V24" t="n">
-        <v>0.06896881152232967</v>
+        <v>0.0875429848011474</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03590367678177227</v>
+        <v>0.03809326094138409</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02599343872846712</v>
+        <v>0.0383447941821668</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04688861573755348</v>
+        <v>0.05076576070532073</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.04144032637379826</v>
+        <v>0.01898607579384409</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03043479783102345</v>
+        <v>0.05092532457749158</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.03485442112672874</v>
+        <v>0.09482650027481244</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.06314317247202741</v>
+        <v>0.09026094196960402</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.02223292207925945</v>
+        <v>0.001099772574669876</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0596715637862282</v>
+        <v>0.09962529703355173</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.046302225612042</v>
+        <v>0.01309633693180662</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.03139530432017378</v>
+        <v>0.03560581431796133</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.001310323430509942</v>
+        <v>-0.02728152584042658</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1049961732673</v>
+        <v>0.1120238525291299</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08151809672439246</v>
+        <v>0.06822455830881359</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02553348116177957</v>
+        <v>0.04932387172123889</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06819174990262031</v>
+        <v>0.01902488316023977</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02496237441771179</v>
+        <v>0.06291393518263384</v>
       </c>
       <c r="J25" t="n">
-        <v>0.008869142404361189</v>
+        <v>0.02558784167624804</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01971634835189046</v>
+        <v>0.07071170298084423</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08848516636514139</v>
+        <v>0.04728044886867694</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00973257365635778</v>
+        <v>0.05472911900134435</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01758341538918799</v>
+        <v>0.003001521335894761</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01361627788931921</v>
+        <v>0.003555091457025119</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0006514397967303984</v>
+        <v>0.005397057193020793</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0662883493600806</v>
+        <v>0.05382885761788055</v>
       </c>
       <c r="R25" t="n">
-        <v>0.008418335227902394</v>
+        <v>0.03208156739844537</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08059459007596981</v>
+        <v>0.03656670914984884</v>
       </c>
       <c r="T25" t="n">
-        <v>0.009504889364079113</v>
+        <v>0.04752004862219612</v>
       </c>
       <c r="U25" t="n">
-        <v>0.006159946857442201</v>
+        <v>0.006540545121117186</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01306166215451825</v>
+        <v>0.07165935641485192</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01718349853704559</v>
+        <v>0.03179254365129335</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01763280383016774</v>
+        <v>0.01246725033796067</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.04546312180573073</v>
+        <v>0.07512598189128819</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.09798789295733173</v>
+        <v>0.0563317184717422</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.05438288388814851</v>
+        <v>0.04418224348533838</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.007810293805947392</v>
+        <v>0.03402177836155488</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01191894291086257</v>
+        <v>0.005302352593347053</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1044005758280551</v>
+        <v>0.04176280245577529</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.08246914468051189</v>
+        <v>0.0008943699326797808</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01085776219361606</v>
+        <v>0.003988434128876973</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.007005240463097665</v>
+        <v>0.03618340947982295</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.03910259262878994</v>
+        <v>0.03427151713648723</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1012578844371848</v>
+        <v>0.1006063005617123</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003832849994709329</v>
+        <v>0.02488819357236531</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05976908659732939</v>
+        <v>0.01197944391333266</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03291812398863882</v>
+        <v>0.03341473359009926</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03276875845760406</v>
+        <v>0.0114516657247707</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002479627739822424</v>
+        <v>0.01875564511393668</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001383412980175744</v>
+        <v>0.0001078614563786574</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05245495875416079</v>
+        <v>0.08350242752531241</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0493453309770508</v>
+        <v>0.03204112555596204</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05073160958782692</v>
+        <v>0.02953017400975974</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0233473175636621</v>
+        <v>0.005608084414520161</v>
       </c>
       <c r="P26" t="n">
-        <v>0.04968409720236314</v>
+        <v>0.0409882532181059</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04256213259787679</v>
+        <v>0.0830223658545626</v>
       </c>
       <c r="R26" t="n">
-        <v>0.004413473505897028</v>
+        <v>0.003179935684320038</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02468623786293964</v>
+        <v>0.007296435710117501</v>
       </c>
       <c r="T26" t="n">
-        <v>0.06089492735064236</v>
+        <v>0.01391241620715743</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03843905772569699</v>
+        <v>0.03966076826787555</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03014330487737246</v>
+        <v>0.07584147822734494</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05811046194357598</v>
+        <v>0.0582717653416503</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02406751678041031</v>
+        <v>0.006172378940085036</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01238258854304022</v>
+        <v>0.02385085669350783</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.04068235397656227</v>
+        <v>0.002044459510263217</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04065108793774366</v>
+        <v>0.01547731496846283</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.06267970468335526</v>
+        <v>0.07736911198222649</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.04425493636956462</v>
+        <v>0.07303168617613492</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.006588079585294272</v>
+        <v>0.05321709114264773</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.07566316768459747</v>
+        <v>0.06156439219700559</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.006895695739929809</v>
+        <v>0.0596744897821453</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.06817009899215724</v>
+        <v>0.05414544521994917</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2016422140136797</v>
+        <v>0.1882337091503561</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1172253301900735</v>
+        <v>0.1119564251264875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05651781614004157</v>
+        <v>0.0224156416810973</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02036587128075364</v>
+        <v>0.00652050637256837</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05068978101706848</v>
+        <v>0.06000956001731324</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07470509592755546</v>
+        <v>0.07682247663326706</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05512348106694914</v>
+        <v>0.04910698761205425</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05495696539664644</v>
+        <v>0.07996432360508691</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03978569669430874</v>
+        <v>0.02334307487882556</v>
       </c>
       <c r="M27" t="n">
-        <v>0.003929634355358761</v>
+        <v>0.0134718966214584</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07061806786141862</v>
+        <v>0.04898834922728906</v>
       </c>
       <c r="O27" t="n">
-        <v>7.245787682555052e-05</v>
+        <v>0.005012405670627991</v>
       </c>
       <c r="P27" t="n">
-        <v>0.004933975620803627</v>
+        <v>0.002706499276449073</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05937437563182562</v>
+        <v>0.02550980899198229</v>
       </c>
       <c r="R27" t="n">
-        <v>0.007316627281178183</v>
+        <v>0.01326446792584326</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02476802548265426</v>
+        <v>0.00199529717823129</v>
       </c>
       <c r="T27" t="n">
-        <v>0.006735024913077863</v>
+        <v>0.02874717391134924</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0713463642535361</v>
+        <v>0.05734286533792744</v>
       </c>
       <c r="V27" t="n">
-        <v>0.05622527620870272</v>
+        <v>0.06552406916996738</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03739292923203359</v>
+        <v>0.07354664516710677</v>
       </c>
       <c r="X27" t="n">
-        <v>0.005468055004752877</v>
+        <v>0.01801663186290741</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.04033717859642467</v>
+        <v>0.01985177714214114</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.06323549772052449</v>
+        <v>0.0726253706645415</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0631103967804947</v>
+        <v>0.05114409101915465</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02498854703607535</v>
+        <v>0.04034929555318501</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.01571993117771894</v>
+        <v>0.007453335970680436</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.04149142978221909</v>
+        <v>0.05308351129131689</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.03201506155142191</v>
+        <v>0.0627334171929691</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.003114046952627349</v>
+        <v>0.01836050563998041</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.01566238915700213</v>
+        <v>0.002090014384678545</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2404809018444405</v>
+        <v>0.2040934123581211</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1196495555853561</v>
+        <v>0.1188181238748333</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02563904210984707</v>
+        <v>0.0169990240242993</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03431451021775549</v>
+        <v>0.01714082594973849</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05500113230581651</v>
+        <v>0.01092506044934578</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05585131689411337</v>
+        <v>0.04410067866696611</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02490477472219261</v>
+        <v>0.006861946011904632</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03828192875051271</v>
+        <v>0.05942170844701206</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06219521127589262</v>
+        <v>0.07095586966681708</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0539087766779845</v>
+        <v>0.03096159443813318</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01919448471665126</v>
+        <v>0.00199085678977759</v>
       </c>
       <c r="O28" t="n">
-        <v>0.008012327167997537</v>
+        <v>0.02433877080710911</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0113180959343075</v>
+        <v>0.06082437326426145</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01534005888042973</v>
+        <v>0.07798407131500673</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05183761808721284</v>
+        <v>0.02056333233543546</v>
       </c>
       <c r="S28" t="n">
-        <v>0.007191662111610478</v>
+        <v>0.01239880441795831</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06071029138299938</v>
+        <v>0.07475394128328591</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03812521926158934</v>
+        <v>0.007372703029352486</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06284340826985514</v>
+        <v>0.06269042380728897</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05897739839693265</v>
+        <v>0.07528942113850162</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01139906706288609</v>
+        <v>0.002667400821677152</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02976973461163291</v>
+        <v>0.03675182546500274</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0006240483561022773</v>
+        <v>0.01138105824967695</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.004521928886263533</v>
+        <v>0.03224420470896677</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05773614089234044</v>
+        <v>0.06922119905044674</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0328316198162279</v>
+        <v>0.00196705268817239</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.01610891326001588</v>
+        <v>0.02429459234981853</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.05235223789561905</v>
+        <v>0.0755130455224301</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.04170793841569789</v>
+        <v>0.002530844137580836</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0693011136395132</v>
+        <v>0.06785537116403348</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.01076313140540555</v>
+        <v>0.05538639153249468</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.137377321913878</v>
+        <v>0.1421176438185051</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07881366125878232</v>
+        <v>0.1062039850937431</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01563371097617159</v>
+        <v>0.03842171100519182</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06129079617213633</v>
+        <v>0.08026814034254233</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04965467061441292</v>
+        <v>0.02083167140766098</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03844041649694575</v>
+        <v>0.03060839967727759</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004526638836943763</v>
+        <v>0.07892986524179814</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01666475073500612</v>
+        <v>0.00722302575251896</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02478695547991441</v>
+        <v>0.003018229436314093</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01767990773459508</v>
+        <v>0.006083338538336985</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03018322947970246</v>
+        <v>0.0185472727555193</v>
       </c>
       <c r="P29" t="n">
-        <v>0.06502522507532436</v>
+        <v>0.006648476477858126</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02458523750674109</v>
+        <v>0.1008022678098311</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07524471986973558</v>
+        <v>0.04107308167753101</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02167294539538792</v>
+        <v>0.01007700167938115</v>
       </c>
       <c r="T29" t="n">
-        <v>0.07833173941968516</v>
+        <v>0.0001704303301934254</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02304537855853791</v>
+        <v>0.03764166861889626</v>
       </c>
       <c r="V29" t="n">
-        <v>0.006690252389403907</v>
+        <v>0.1020374187506697</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0317900230303332</v>
+        <v>0.03688123160257955</v>
       </c>
       <c r="X29" t="n">
-        <v>0.005563592848655744</v>
+        <v>0.0001303106203199072</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01636666580766705</v>
+        <v>0.0270605874393846</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07686534894358762</v>
+        <v>0.04064868746994519</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.05931727586705243</v>
+        <v>0.05494437394303136</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.06971911451834173</v>
+        <v>0.07267174323751882</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01234135060308227</v>
+        <v>0.02470303862080407</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.01463227212832693</v>
+        <v>0.02317721063270633</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.006746046723551506</v>
+        <v>0.002970244986658609</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.003628058555231175</v>
+        <v>0.009937204888908136</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.07076001497474356</v>
+        <v>0.01828938196287944</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1026619947643852</v>
+        <v>0.1282981536449</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09066074685100853</v>
+        <v>0.09072142736678394</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04483461563420067</v>
+        <v>0.03199072162495884</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03661478452229421</v>
+        <v>0.03804379070891874</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04459330840700012</v>
+        <v>0.03637942956726779</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04314328477212371</v>
+        <v>0.06300177558961435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03642874546175916</v>
+        <v>0.02358549483762188</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003504936680096173</v>
+        <v>0.03845470446169075</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009612284885115152</v>
+        <v>0.007305985930982773</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04749688775288664</v>
+        <v>0.03007439390843948</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01383270857951382</v>
+        <v>0.02176000324471109</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008022112483941983</v>
+        <v>0.008642567581223205</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002161025261011684</v>
+        <v>0.02288460248104606</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03536963446567827</v>
+        <v>0.03552889333019928</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02223246916393824</v>
+        <v>0.04372541942990785</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0171470228404495</v>
+        <v>0.02009891455874608</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06345710442351052</v>
+        <v>0.06614971499645131</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04372378147425945</v>
+        <v>0.02958213085380939</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06739237982633088</v>
+        <v>0.05947612775273137</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02155197205189313</v>
+        <v>0.00181914175005202</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05242061786341555</v>
+        <v>0.06489275124162724</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.04351635719949232</v>
+        <v>0.05756914836369205</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04126194130527459</v>
+        <v>0.06657457866186535</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06550997153460869</v>
+        <v>0.06404756167394049</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0492520228154579</v>
+        <v>0.05072158148336795</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.00780670638371292</v>
+        <v>0.006900400109807458</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02833100528850307</v>
+        <v>0.0134623737029429</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0689665909218672</v>
+        <v>0.01202795440625951</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.04394708875278378</v>
+        <v>0.05935808382876455</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.03786863924888081</v>
+        <v>0.02594175391936029</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1250984880814534</v>
+        <v>0.1109282614759383</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1073063161831123</v>
+        <v>0.1095601128968005</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06635776548040206</v>
+        <v>0.04927295698453343</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01001352326577442</v>
+        <v>0.01270209858165629</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01202854182184126</v>
+        <v>0.02097333904355677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07052261436545772</v>
+        <v>0.08091006780793839</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0241511106596271</v>
+        <v>0.03145273559632245</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004084887629622722</v>
+        <v>0.001193661867031478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0195831869811072</v>
+        <v>0.08697890396687338</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09369374400011425</v>
+        <v>0.04990713605294998</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007561155786134736</v>
+        <v>0.03352924892590427</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07018606098463551</v>
+        <v>0.03562271514566718</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005786219683657995</v>
+        <v>0.004334500724131093</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0355601140106426</v>
+        <v>0.0855982548259023</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02853839547088691</v>
+        <v>0.01475613426573254</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00199820659178077</v>
+        <v>0.0213540497232064</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03274867451379707</v>
+        <v>0.05280998516058421</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009832874625628511</v>
+        <v>0.01880463713075587</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00700260029072909</v>
+        <v>0.005782374410249932</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01094347697361317</v>
+        <v>0.04112710732229173</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04430416403664422</v>
+        <v>0.01764781257447494</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.09157831466130403</v>
+        <v>0.07857852695465453</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.07586242053804426</v>
+        <v>0.04054146445828329</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04028066082324752</v>
+        <v>0.04293198259434866</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0004261591343821478</v>
+        <v>0.008490448486219227</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03050760735361097</v>
+        <v>0.01539106631738272</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01250739823673432</v>
+        <v>0.02833173108447134</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.07305512511715884</v>
+        <v>0.08457935486239655</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.09669597478198123</v>
+        <v>0.002074295247952879</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.02418902218143927</v>
+        <v>0.03432340988452801</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1490765829241902</v>
+        <v>0.153288179077933</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1112908456772898</v>
+        <v>0.1082999251056123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01421558422598003</v>
+        <v>0.006295265484593178</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05363708805555607</v>
+        <v>0.05175072756976223</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005090506479721753</v>
+        <v>0.01472536816149548</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06677395392616484</v>
+        <v>0.0204988627732658</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04305558452394816</v>
+        <v>0.01378577020122138</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006265333175557984</v>
+        <v>0.006783800705382424</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01840624631839637</v>
+        <v>0.05908482786766675</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002755290623995436</v>
+        <v>0.04844789497234662</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04394154364840014</v>
+        <v>0.04601445728086345</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03220458732624888</v>
+        <v>0.005954989622758033</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07204874791385325</v>
+        <v>0.06744310187151065</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006866260101513109</v>
+        <v>0.02375214977581356</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04161190474589239</v>
+        <v>0.01082224566206288</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01437478457323166</v>
+        <v>0.008459545080715322</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02330254243174521</v>
+        <v>0.06455792209534553</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03338192764653499</v>
+        <v>0.03133509303088733</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0438929298820088</v>
+        <v>0.01982367304490596</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06370824509649847</v>
+        <v>0.07905253657165139</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03276709898692139</v>
+        <v>0.03657327043502197</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.009284005071211823</v>
+        <v>0.007969268766436772</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.003942804188675689</v>
+        <v>0.05930803408928667</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.007977620433577708</v>
+        <v>0.02450461255664812</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04563928047490808</v>
+        <v>0.06502465163196935</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05240109775020068</v>
+        <v>0.05870536032592853</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.07521081448307984</v>
+        <v>0.07010302403101903</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.04160938523197279</v>
+        <v>0.01181035576532725</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.07163639345482448</v>
+        <v>0.04941836743471901</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.07399843922937979</v>
+        <v>0.03799482319139544</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.3007727855014379</v>
+        <v>-0.2881273104338656</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1697483251931174</v>
+        <v>0.1336420604864568</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07811145765862854</v>
+        <v>0.0846868683384376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002131789793135682</v>
+        <v>0.004247999201801423</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006865088720074167</v>
+        <v>0.003650204899956897</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04429056737081085</v>
+        <v>0.003625141015526481</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07544745891969085</v>
+        <v>0.08068827739620515</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05943871934835727</v>
+        <v>0.001329282893477445</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01057445358119073</v>
+        <v>0.02569881379553275</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0275661146783071</v>
+        <v>0.06279822376761521</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03037830384599704</v>
+        <v>0.02853739791133245</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01213352339502772</v>
+        <v>0.04080360629389258</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05683047538731258</v>
+        <v>0.0486905777618663</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01635333182098517</v>
+        <v>0.03070528099139142</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01880179299571149</v>
+        <v>0.005160892278348658</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06526911299545575</v>
+        <v>0.04041740764378332</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02599676936187607</v>
+        <v>0.03790447889345766</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05638191276671843</v>
+        <v>0.02577867194860538</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05116180496574058</v>
+        <v>0.0418198499085127</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08618943566163612</v>
+        <v>0.07574394168615708</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01169072701996924</v>
+        <v>0.02215115065256699</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001593258814758467</v>
+        <v>0.006270197762901971</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0724180554434576</v>
+        <v>0.06704059729980269</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05555676005051299</v>
+        <v>0.07700022505179314</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04190749183006157</v>
+        <v>0.02623790590199835</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02752349233373365</v>
+        <v>0.01739975938616539</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.000838086343272474</v>
+        <v>0.004089612414485693</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.007221754894736007</v>
+        <v>0.01701503019035968</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01348253175252632</v>
+        <v>0.03338683477459881</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.04384572825031553</v>
+        <v>0.08712176993942655</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3635617565518143</v>
+        <v>-0.3336595871144162</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.22623562007516</v>
+        <v>0.2312917693081716</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00748555984596538</v>
+        <v>0.02313748696239736</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08237671827676737</v>
+        <v>0.03144315395379152</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004919337199682529</v>
+        <v>0.01734042166441077</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005000407802477237</v>
+        <v>0.07815002535545484</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01296555828175348</v>
+        <v>0.03374424427673985</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009951367504731998</v>
+        <v>0.001522223272543562</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0239039896204662</v>
+        <v>0.03353822625086605</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08307884866646337</v>
+        <v>0.01385373841984205</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002957214985798418</v>
+        <v>0.01189476105879827</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006320628639420012</v>
+        <v>0.003467579789142031</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06926729901710774</v>
+        <v>0.04485429040531186</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08129146743608089</v>
+        <v>0.0391876035380062</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05637954845059315</v>
+        <v>0.03957332349303641</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03343638002497257</v>
+        <v>0.070313599963868</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08080955573239355</v>
+        <v>0.07657534638156897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.006798226997034809</v>
+        <v>0.003989936951134684</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04244020314350401</v>
+        <v>0.07279249538320536</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04232905187988693</v>
+        <v>0.07025073854011395</v>
       </c>
       <c r="X6" t="n">
-        <v>0.07611833603226373</v>
+        <v>0.01910062868679675</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01907281647641512</v>
+        <v>0.04038201920165634</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01810389104068565</v>
+        <v>0.00871320009405737</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04425746112360211</v>
+        <v>0.01922150345080899</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0739160149360155</v>
+        <v>0.008520607965311403</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01027023540877974</v>
+        <v>0.02189180154709349</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.007532903984537785</v>
+        <v>0.01643535361731402</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05492540449045591</v>
+        <v>0.06750155724081323</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03069561310686793</v>
+        <v>0.07894009427769762</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0133959598952772</v>
+        <v>0.05366403825821892</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1543159133413471</v>
+        <v>0.1862176858016992</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2842547019714225</v>
+        <v>0.285859758352819</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03200040624717049</v>
+        <v>0.07229368446764006</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01696676828324873</v>
+        <v>0.07015508527078607</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05409501557279355</v>
+        <v>0.07477123774351337</v>
       </c>
       <c r="I7" t="n">
-        <v>2.933565023703222e-05</v>
+        <v>0.009612367953909176</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003731046193092994</v>
+        <v>0.0073169681264749</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07603282356459456</v>
+        <v>0.04550389332037802</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009640973808703754</v>
+        <v>0.009195326816990671</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06711000063665101</v>
+        <v>0.01569638923746189</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01917889959568193</v>
+        <v>0.02103250944111703</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05987284664955186</v>
+        <v>0.02314730253718608</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03758189430072201</v>
+        <v>0.001733100297876289</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005634806311677149</v>
+        <v>0.05528950643035472</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04654740385281988</v>
+        <v>0.06001309467360807</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0728154212948731</v>
+        <v>0.0007706059344647671</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08011595062080352</v>
+        <v>0.006523375820256777</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01339771148606091</v>
+        <v>0.05288086469591304</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0276118616652268</v>
+        <v>0.04284122367288432</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0727946682993454</v>
+        <v>0.05234033147921682</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03207379477825976</v>
+        <v>0.06219887881767249</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001570089079610378</v>
+        <v>0.01761219619267887</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.007996869927784296</v>
+        <v>0.02240874144427119</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0562932058248669</v>
+        <v>0.07093310423497916</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0151471235358974</v>
+        <v>0.06524768109248615</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03460647722790726</v>
+        <v>0.01932636570219449</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.009664938161399904</v>
+        <v>0.007294892592988132</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.05543135202100779</v>
+        <v>0.03492845004278371</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01019520181072566</v>
+        <v>0.04580954632944959</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.08186311359928591</v>
+        <v>0.03312327563046401</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2621395485080035</v>
+        <v>0.2933361746628487</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2498921559494668</v>
+        <v>0.2462082000521798</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02850620363474886</v>
+        <v>0.01889053279647732</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07601288768586081</v>
+        <v>0.06883131105274902</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005403863465114591</v>
+        <v>0.001237897720108364</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001368087499064842</v>
+        <v>0.05265806220196632</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0302904206650483</v>
+        <v>0.03051027106187401</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01532887737953686</v>
+        <v>0.004319812239530386</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0483228465871601</v>
+        <v>0.06404992886321152</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02741796578847752</v>
+        <v>0.01465081822733823</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03339728164883021</v>
+        <v>0.01892923757014404</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002249912438233119</v>
+        <v>0.02280737436740597</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02024898915136524</v>
+        <v>0.05252701948586719</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05575499230221209</v>
+        <v>0.01281744814734206</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01114456282924925</v>
+        <v>0.01225494124415376</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04167640852132577</v>
+        <v>0.01118726739893002</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04135805209535053</v>
+        <v>0.07473397843672942</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003425088437077636</v>
+        <v>0.002784455334770922</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0575299080103021</v>
+        <v>0.06229371353977989</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06533448562039132</v>
+        <v>0.02733015871305979</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0441966539054603</v>
+        <v>0.06971799109025914</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0395712442600932</v>
+        <v>0.02655026773481236</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03176233969177159</v>
+        <v>0.03198643163482621</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03826007321133178</v>
+        <v>0.0564363035534237</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06023082443100952</v>
+        <v>0.06395029561292172</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.03705944722082776</v>
+        <v>0.05166392522375447</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.05595678965518885</v>
+        <v>0.008673840872298815</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.04198430641261554</v>
+        <v>0.06156383021459499</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03400190125494981</v>
+        <v>0.01130038563491857</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.05220558619740231</v>
+        <v>0.06534250002675152</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1004568583382898</v>
+        <v>0.07969333450842596</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2992733010708755</v>
+        <v>0.3068927707362944</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1001135142194981</v>
+        <v>0.07660814487889268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03351394745269779</v>
+        <v>0.0112508581724149</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03670227393552562</v>
+        <v>0.0513016911779788</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008715858303172324</v>
+        <v>0.05557488068062049</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001458472786254108</v>
+        <v>0.03765372005727223</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0830178502383572</v>
+        <v>0.06217484600955114</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03642603970698495</v>
+        <v>0.06449909666250744</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04047920059924636</v>
+        <v>0.006163587481877437</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04403004212442336</v>
+        <v>0.0434059167257854</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08351638369674615</v>
+        <v>0.07956205840624606</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0190175063612958</v>
+        <v>0.03320731076952368</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.009614391314016184</v>
+        <v>0.05470202955534773</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03913335577718735</v>
+        <v>0.01650083628270684</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07629084786133343</v>
+        <v>0.02490382827201669</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0212210204691884</v>
+        <v>0.05053580145764904</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007408056015718701</v>
+        <v>0.008900541449963884</v>
       </c>
       <c r="V9" t="n">
-        <v>0.008063151628966184</v>
+        <v>0.01659217107153765</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1131607056055852</v>
+        <v>0.04089651486448675</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03967058346521616</v>
+        <v>0.08267190763976041</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02538637177182507</v>
+        <v>0.01415574175556133</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01357592781032951</v>
+        <v>0.05979668156187066</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.004936199732220967</v>
+        <v>0.03270471367486563</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02165340872113251</v>
+        <v>0.009793833106121046</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01601734626967108</v>
+        <v>0.001908426796179469</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.006849540377313577</v>
+        <v>0.03064951415355466</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.08100759356261553</v>
+        <v>0.002029041350445876</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01815298531831192</v>
+        <v>0.01417351935767229</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.01086742487516637</v>
+        <v>0.01768278662758978</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1436223391791777</v>
+        <v>0.1301092900904414</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1575658619190011</v>
+        <v>0.1625732665374645</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01858038564262963</v>
+        <v>0.03528138455477202</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03194612580669351</v>
+        <v>0.04297359025953011</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002811826175332477</v>
+        <v>0.01059406246158016</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003517184881248088</v>
+        <v>0.007154706374553446</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02610328520503131</v>
+        <v>0.008911362569981979</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03537612537849033</v>
+        <v>0.03957530276462997</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04445409204310133</v>
+        <v>0.04820635222684035</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005271491715735293</v>
+        <v>0.01019921189581809</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03019856130048797</v>
+        <v>0.008281670645993486</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01512481114625756</v>
+        <v>0.00680693340423359</v>
       </c>
       <c r="P10" t="n">
-        <v>0.007098463875276882</v>
+        <v>0.03291750835901773</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.06556496494787911</v>
+        <v>0.04019156114065696</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04606554296426332</v>
+        <v>0.08169843869739936</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02850976077581425</v>
+        <v>0.05104768373269784</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07904710119636439</v>
+        <v>0.08336908645093248</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006121257899701094</v>
+        <v>0.02344090195002806</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01363372391374676</v>
+        <v>0.03630347176230956</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07609803573425501</v>
+        <v>0.03726143729270023</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001187263834415033</v>
+        <v>0.00252805840967157</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08905131622018528</v>
+        <v>0.0280133884505136</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06166169049166329</v>
+        <v>0.06376975506873853</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02738284515161525</v>
+        <v>0.01454376832790489</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1027896656438801</v>
+        <v>0.06069645220073152</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0221910548280325</v>
+        <v>0.02619412175088274</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01417948143209367</v>
+        <v>0.00650765742457337</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01448906532776809</v>
+        <v>0.0261034149044794</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03784901912561414</v>
+        <v>0.08185716266539958</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.09369585734242425</v>
+        <v>0.08557155425342954</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.03627581027815024</v>
+        <v>0.0348079360263512</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.182872599719027</v>
+        <v>0.1830468758501197</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06515971225459366</v>
+        <v>0.06856079623480264</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02519943535087628</v>
+        <v>0.06889298576208074</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001821202556256865</v>
+        <v>0.03329738800225737</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01216824280451883</v>
+        <v>0.01490279811405929</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06197098942959788</v>
+        <v>0.04927227578472838</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05199538023063918</v>
+        <v>0.06447516410675763</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002074315157749603</v>
+        <v>0.009842413746683208</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04648167150835646</v>
+        <v>0.01311358879373061</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001767575155260577</v>
+        <v>0.0210698835269894</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01260796604239106</v>
+        <v>0.01328562323552511</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0624140530998864</v>
+        <v>0.02948547088076406</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05828951265571531</v>
+        <v>0.0007990934941352641</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06984229308322189</v>
+        <v>0.07127202773614294</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01516951658110439</v>
+        <v>0.02927218161794879</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05612399096167978</v>
+        <v>0.03401479296430844</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03756426154093259</v>
+        <v>0.02155891652363721</v>
       </c>
       <c r="V11" t="n">
-        <v>0.06570346111111425</v>
+        <v>0.0643093041864919</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03843140017263131</v>
+        <v>0.0704953677031797</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01950501765097937</v>
+        <v>0.02601102573535847</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.00313161090554761</v>
+        <v>0.005327376500203348</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02952707500751552</v>
+        <v>0.005241025142265571</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03036476024972764</v>
+        <v>0.07554545376701872</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01758092283128041</v>
+        <v>0.003047946310992568</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.06109839871138301</v>
+        <v>0.01022766617344343</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.06289582079917048</v>
+        <v>0.07292232138222725</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.04660191394241699</v>
+        <v>0.03494719676803307</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.008374458616219604</v>
+        <v>0.01319483687588604</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.03613504158923301</v>
+        <v>0.07561507893034897</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.06507094313952065</v>
+        <v>0.08179399073235775</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1431534540654342</v>
+        <v>0.141563492477191</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06585200772258235</v>
+        <v>0.03491347140213066</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06606312734347852</v>
+        <v>0.0658637860747545</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01358338571034414</v>
+        <v>0.003806659932653296</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03707880117058942</v>
+        <v>0.01235047701130282</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0009137300236110877</v>
+        <v>0.003732451891173362</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01799839768785514</v>
+        <v>0.01600830511563592</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01979363466640203</v>
+        <v>0.01170204644795889</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003426958612624305</v>
+        <v>0.05803917476984057</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05060621334619467</v>
+        <v>0.01941454930634272</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05373641404400755</v>
+        <v>0.02677161507097351</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01538319005340423</v>
+        <v>0.03094056821836375</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04073139336072917</v>
+        <v>0.01208002160394212</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00932096995471029</v>
+        <v>0.05625301759970878</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0003676722240720415</v>
+        <v>0.02078055591302957</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0454397701915125</v>
+        <v>0.06894071697814026</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001314319127366667</v>
+        <v>0.03977622561587323</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06248577705074206</v>
+        <v>0.06116670309186444</v>
       </c>
       <c r="W12" t="n">
-        <v>0.03225391433154751</v>
+        <v>0.06921325787909259</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05661614705314557</v>
+        <v>0.06620156699537388</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07201068976280235</v>
+        <v>0.04834704639629515</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0006983377676138414</v>
+        <v>0.01020403358523945</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01575419279684605</v>
+        <v>0.0101243221797708</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06517258111601484</v>
+        <v>0.07332508629273331</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.05189625918036766</v>
+        <v>0.03270080684924335</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002295768627706234</v>
+        <v>0.002895433854978028</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06656001573811764</v>
+        <v>0.01487069857826619</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.06246014023723222</v>
+        <v>0.05638624033673483</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.07018619109837987</v>
+        <v>0.07319116100858399</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1359838885717935</v>
+        <v>0.1038180429345155</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1611408754394861</v>
+        <v>0.1597788179789014</v>
       </c>
       <c r="F13" t="n">
-        <v>0.101702794727157</v>
+        <v>0.09763154608150196</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02021085404018072</v>
+        <v>0.02619177529933333</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09790942828204735</v>
+        <v>0.08549886579883569</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05736380377553049</v>
+        <v>0.01132393468750248</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01742761538154491</v>
+        <v>0.007693954045433015</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04457167389834801</v>
+        <v>0.02437531999658834</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004865251199947883</v>
+        <v>0.002746660325049045</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00444144513566372</v>
+        <v>0.03370510406793387</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06334687362273261</v>
+        <v>0.02971248884041192</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01684244194690045</v>
+        <v>0.0008067299272725151</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02645854346608887</v>
+        <v>0.006250881324766098</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.007560435201908601</v>
+        <v>0.03175698833916436</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0907848781668132</v>
+        <v>0.07368024613880257</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07888028228374119</v>
+        <v>0.04413964924669671</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04177655146989704</v>
+        <v>0.07819551444470826</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002524808668997631</v>
+        <v>0.04609781445590466</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05491329771576483</v>
+        <v>0.04220098184855129</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0502555240477556</v>
+        <v>0.02720203701328687</v>
       </c>
       <c r="X13" t="n">
-        <v>0.007748321519231527</v>
+        <v>0.09589111421488544</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02072669668771629</v>
+        <v>0.01466532391151025</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02299310295628959</v>
+        <v>0.009886451030585674</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01971506286521027</v>
+        <v>0.02950737691064756</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0318226573978975</v>
+        <v>0.01124898132107612</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03678478620776354</v>
+        <v>0.002635904958376861</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02926369352393229</v>
+        <v>0.101767124878406</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.02613260311266864</v>
+        <v>0.0217874917665976</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.003035464722527893</v>
+        <v>0.005858449682664715</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01994110797574252</v>
+        <v>0.03754128944350689</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1103171616418648</v>
+        <v>0.1081417088164642</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1281770057664383</v>
+        <v>0.1269065393037855</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05995244189108729</v>
+        <v>0.04569265783070651</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05124856898376216</v>
+        <v>0.0005717549191012862</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04521800349872741</v>
+        <v>0.002570427144593127</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01395994277275828</v>
+        <v>0.003925747752555925</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002019186348761971</v>
+        <v>0.01068850770947006</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006114439210168129</v>
+        <v>0.01240391602129782</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05800462099741579</v>
+        <v>0.009821297541144769</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01556736595584387</v>
+        <v>0.03307544938510835</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01890920793315339</v>
+        <v>0.003177127312954216</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01903990271494378</v>
+        <v>0.07555470229825467</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02519077625430484</v>
+        <v>0.02002863630560977</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.007960976596684519</v>
+        <v>0.03961729803316998</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04144762967096771</v>
+        <v>0.03745693651711784</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07631732607217846</v>
+        <v>0.05827160185073838</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06183047816053894</v>
+        <v>0.08890667083515971</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001167083715494335</v>
+        <v>0.0008621072307122873</v>
       </c>
       <c r="V14" t="n">
-        <v>0.009786328818580634</v>
+        <v>0.04692734642293676</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04660694070276458</v>
+        <v>0.05789655037168952</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0197371559494037</v>
+        <v>0.05122727845784897</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02072635072807351</v>
+        <v>0.08407366454465483</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.059668604879819</v>
+        <v>0.04778807062040649</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04638039463233951</v>
+        <v>0.01448445014957223</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0785408677740584</v>
+        <v>0.02791554940556708</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0613535734437419</v>
+        <v>0.003763081955518772</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01072681992964879</v>
+        <v>0.0008874413608740409</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.07442999817544471</v>
+        <v>0.08579915928788964</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.05963791581070021</v>
+        <v>0.04599373077435307</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.01396009366778563</v>
+        <v>0.09061883796099411</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2178622694937314</v>
+        <v>0.1980689796475784</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1421376101719371</v>
+        <v>0.1424769834089948</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007404808840456852</v>
+        <v>0.04515662134433674</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07390796367571896</v>
+        <v>0.05938750887462244</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06751844833122315</v>
+        <v>0.04447435802097413</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07045146648764053</v>
+        <v>0.06668472211515854</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004162608256892121</v>
+        <v>0.002016592945900392</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07310439074368595</v>
+        <v>0.03942126082473776</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005146771975451677</v>
+        <v>0.01292940812075745</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03765965452422062</v>
+        <v>0.001570211568684033</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07580067446609901</v>
+        <v>0.0700419823102877</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01253122006446809</v>
+        <v>0.02511161073662277</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05075533327805148</v>
+        <v>0.06761092293642428</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001049258640281738</v>
+        <v>0.06280857744295489</v>
       </c>
       <c r="R15" t="n">
-        <v>0.003561362514561773</v>
+        <v>0.05418847509167453</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002991291758479515</v>
+        <v>0.05198997111205753</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0539140014805067</v>
+        <v>0.0666140424311443</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01606468039461866</v>
+        <v>0.03485894824001359</v>
       </c>
       <c r="V15" t="n">
-        <v>0.065268868424774</v>
+        <v>0.01024957054708514</v>
       </c>
       <c r="W15" t="n">
-        <v>0.005164647091477197</v>
+        <v>0.00116903450273047</v>
       </c>
       <c r="X15" t="n">
-        <v>0.07299874994804349</v>
+        <v>0.02455698021931656</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.06770082005281833</v>
+        <v>0.03719404466466004</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01070357132324854</v>
+        <v>0.002451993471537425</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.00674865006189878</v>
+        <v>0.003161121883115951</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02913424938379499</v>
+        <v>0.07156453276145476</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0218461405205045</v>
+        <v>0.006245796276316971</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03154968505069666</v>
+        <v>0.02254972580587634</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.06284418681408238</v>
+        <v>0.03627921877925518</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.04945866278429313</v>
+        <v>0.03324540717707594</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0205578331120111</v>
+        <v>0.04646735979522409</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2812597225376273</v>
+        <v>0.2567939686737156</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.09701229878422601</v>
+        <v>0.09812863886536169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05229547272089279</v>
+        <v>0.005991371649866541</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01027483112488443</v>
+        <v>0.01793172265461521</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005554556868454531</v>
+        <v>0.008583273983749624</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01042719914845228</v>
+        <v>0.009292827296895137</v>
       </c>
       <c r="J16" t="n">
-        <v>0.004095067200847739</v>
+        <v>0.01975695307832108</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02199638507989727</v>
+        <v>0.01171141309507613</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0547373390148893</v>
+        <v>0.03613202364402498</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06325478478904549</v>
+        <v>0.05961657802207439</v>
       </c>
       <c r="N16" t="n">
-        <v>0.008640855273108568</v>
+        <v>0.009634556140587995</v>
       </c>
       <c r="O16" t="n">
-        <v>0.007389599255449469</v>
+        <v>0.0007763744292537574</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02082707574470822</v>
+        <v>0.04998061769114539</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.006863780505276782</v>
+        <v>0.0172954955625468</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06118425501148576</v>
+        <v>0.03456581795939112</v>
       </c>
       <c r="S16" t="n">
-        <v>0.03862103033821448</v>
+        <v>0.06524165414348856</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05263114407833311</v>
+        <v>0.07055655643069947</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04386552802766026</v>
+        <v>0.03458551767428186</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03959706861319394</v>
+        <v>0.05797213513083826</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05835918965362012</v>
+        <v>0.07229304032626621</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0003184840810834363</v>
+        <v>0.06039482242318076</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06350636443680913</v>
+        <v>0.06119428664600553</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03156261232512789</v>
+        <v>0.004536360591279325</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01827223813887453</v>
+        <v>0.003965549096863013</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0631567731135199</v>
+        <v>0.06104880878331229</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0442595171674897</v>
+        <v>0.06863765413944703</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.04724922844171447</v>
+        <v>0.02326183814114092</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.05670727069822493</v>
+        <v>0.05874782231225294</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.05487546316744089</v>
+        <v>0.06213743884454772</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.05947688598130061</v>
+        <v>0.01415749010884808</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1195708150551276</v>
+        <v>0.1210531513228685</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1102226317544236</v>
+        <v>0.1070076359518718</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01157408929210084</v>
+        <v>0.003702501464893409</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01400968567311721</v>
+        <v>0.07425094502519303</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02733507705361668</v>
+        <v>0.01429146907716344</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0467807827231187</v>
+        <v>0.07301923373733836</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001082019291172643</v>
+        <v>0.007158546053026171</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03654163648988079</v>
+        <v>0.004849237361982469</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04394761783902191</v>
+        <v>0.05018510827757453</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01138077255128857</v>
+        <v>0.04091737694584597</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05447422530570296</v>
+        <v>0.05147275200243193</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01689252862106532</v>
+        <v>0.004176207449378854</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05025469980160308</v>
+        <v>0.02639919202450021</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02838665142921228</v>
+        <v>0.02273811859893291</v>
       </c>
       <c r="R17" t="n">
-        <v>0.008492319190094022</v>
+        <v>0.04393953563607454</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04307493498073135</v>
+        <v>0.02288914281485322</v>
       </c>
       <c r="T17" t="n">
-        <v>0.06969870593731149</v>
+        <v>0.08103982571890142</v>
       </c>
       <c r="U17" t="n">
-        <v>0.004051512663886012</v>
+        <v>0.04008515157928943</v>
       </c>
       <c r="V17" t="n">
-        <v>0.03922383317904711</v>
+        <v>0.05771401399558888</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01906269323154565</v>
+        <v>0.0467980096877151</v>
       </c>
       <c r="X17" t="n">
-        <v>0.09839028419506395</v>
+        <v>0.07585140565257838</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.09015830579224555</v>
+        <v>0.03883469079912117</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01028833838824768</v>
+        <v>0.007896885467908408</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02042296986320528</v>
+        <v>0.03106198220519581</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0304634723932454</v>
+        <v>0.05918534291079355</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0136969162899389</v>
+        <v>0.0005521176234050368</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.07138158404059156</v>
+        <v>0.030833305474517</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.008808107378108953</v>
+        <v>0.01272796094247859</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.08367519790721738</v>
+        <v>0.0670663891214419</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.04645103849861892</v>
+        <v>0.0103635523518763</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1639186107809208</v>
+        <v>0.130052095579332</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.09247990536202283</v>
+        <v>0.09215466105202955</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02321255918505471</v>
+        <v>0.01818415574673585</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01228957874285398</v>
+        <v>0.01321997525691459</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0003166110552391462</v>
+        <v>0.0007405537305842263</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02321658168889995</v>
+        <v>0.02555336080959583</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05901273160048222</v>
+        <v>0.07333465988651339</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05431437406041536</v>
+        <v>0.007444415373529314</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03877212602958782</v>
+        <v>0.01123620126008919</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06628557386991231</v>
+        <v>0.05590309623976101</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04275538069239779</v>
+        <v>0.05080324186649683</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02102454608601295</v>
+        <v>0.01987144813208249</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06017171733835623</v>
+        <v>0.01525176428792468</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01367689151942981</v>
+        <v>0.04706512171682323</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07128597407993766</v>
+        <v>0.07581273052197736</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01335719498803097</v>
+        <v>0.04832192974223105</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02919352178853097</v>
+        <v>0.03247283739196026</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02133903442766369</v>
+        <v>0.02310195714150311</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06834390583285364</v>
+        <v>0.05858027900296494</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05419106900480508</v>
+        <v>0.0478529939920417</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02770867108764048</v>
+        <v>0.02988614773228098</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04437081621394452</v>
+        <v>0.04281365524834716</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.03280890855194854</v>
+        <v>0.02158356617809617</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.00769883176346692</v>
+        <v>0.05275757942662658</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07195329402646865</v>
+        <v>0.0523796905924953</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05512237027310166</v>
+        <v>0.04926452736997265</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01802626911625155</v>
+        <v>0.01784677465872486</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.05969090094279173</v>
+        <v>0.07745993129809442</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.005411886320878041</v>
+        <v>0.003543302231860662</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.004448679713043456</v>
+        <v>0.02771410316377235</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.001736692358082765</v>
+        <v>-0.02167403824249554</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1072196513078382</v>
+        <v>0.1104142777055829</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001514860196293665</v>
+        <v>0.03925931485743016</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04723833363406362</v>
+        <v>0.0010684443128783</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007500923061770395</v>
+        <v>0.04691319828102997</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01248598583458845</v>
+        <v>0.06209518898711106</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01355529533797321</v>
+        <v>0.008648028223853717</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04096737226419108</v>
+        <v>0.0308279004186956</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09007359840953802</v>
+        <v>0.03502760132444373</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07511415702664856</v>
+        <v>0.001626603861646997</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0380455538248582</v>
+        <v>0.04852924227612532</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003959213889187135</v>
+        <v>0.0533085256679478</v>
       </c>
       <c r="P19" t="n">
-        <v>0.088949604995834</v>
+        <v>0.09254810782121987</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01090622978190668</v>
+        <v>0.01521352371611225</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0173478551620673</v>
+        <v>0.03588373538986574</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02338559479402956</v>
+        <v>0.006402862493109901</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0004296967487884785</v>
+        <v>0.003045046348007448</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04209937521112155</v>
+        <v>0.01625885912088148</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01020176733336044</v>
+        <v>0.02658768737555665</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08185764055604573</v>
+        <v>0.03964781043390493</v>
       </c>
       <c r="X19" t="n">
-        <v>0.05418067314232779</v>
+        <v>0.0548159363819445</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.005109994230013547</v>
+        <v>0.01020176204062349</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02560815276586775</v>
+        <v>0.0427928602693078</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07079076542658112</v>
+        <v>0.07665729036112298</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.003197534441288733</v>
+        <v>0.02075407769482505</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.06204853582906249</v>
+        <v>0.05403801937463538</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.08231731930652907</v>
+        <v>0.08217261405797945</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.04256967189347122</v>
+        <v>0.01146171349467227</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0477220227569797</v>
+        <v>0.08397762231526336</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0008222721456125411</v>
+        <v>0.000236423099804799</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.07267349195033909</v>
+        <v>0.07169465151351899</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1069521879619067</v>
+        <v>0.1073700420480821</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04351918610031062</v>
+        <v>0.05042145161646188</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001482709467536127</v>
+        <v>0.003422971541998311</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04416144168206057</v>
+        <v>0.06876739051342706</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06492501293804902</v>
+        <v>0.001187175336111465</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0135128896281589</v>
+        <v>0.08110608970258823</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001807079670893055</v>
+        <v>0.019697363407543</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07055471490382323</v>
+        <v>0.0157114838851395</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01907159731361486</v>
+        <v>0.04058808042861338</v>
       </c>
       <c r="N20" t="n">
-        <v>0.013492341401706</v>
+        <v>0.00173261729207046</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004040084308226421</v>
+        <v>0.0136507816545311</v>
       </c>
       <c r="P20" t="n">
-        <v>0.008854145577015957</v>
+        <v>0.001620641102906411</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02804917626526432</v>
+        <v>0.02803924787032774</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05704208843793078</v>
+        <v>0.01640836698774754</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04461531290289409</v>
+        <v>0.01873177720197717</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05436932217961226</v>
+        <v>0.04205890785120579</v>
       </c>
       <c r="U20" t="n">
-        <v>0.009691296921877963</v>
+        <v>0.002976498705782522</v>
       </c>
       <c r="V20" t="n">
-        <v>0.07102302239704719</v>
+        <v>0.06701740207030288</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05152518972619984</v>
+        <v>0.07869596325947939</v>
       </c>
       <c r="X20" t="n">
-        <v>0.03448836176823695</v>
+        <v>0.04821915077391364</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03147920526898737</v>
+        <v>0.06831082175657327</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01174647299917801</v>
+        <v>0.008083272813010993</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.04662113085200105</v>
+        <v>0.0004991866411699804</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.03234198286250304</v>
+        <v>0.07033206614621555</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03551557251558289</v>
+        <v>0.04699495980512788</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.007215033395681204</v>
+        <v>0.03241058078416461</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.06577218474568966</v>
+        <v>0.0880868060129763</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.06543093632046773</v>
+        <v>0.04371182854928589</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.06765250744945106</v>
+        <v>0.04151711628934796</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.09259991708955781</v>
+        <v>0.1240855323053454</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1176668668307561</v>
+        <v>0.1231496037593196</v>
       </c>
       <c r="F21" t="n">
-        <v>0.021300855911082</v>
+        <v>0.001083371403866506</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00166513700228612</v>
+        <v>0.05665790733070988</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009169890473066114</v>
+        <v>0.0053474218646045</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009848831507405833</v>
+        <v>0.03443616218049531</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006249309880039164</v>
+        <v>0.01367587181867074</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07047440376834078</v>
+        <v>0.06041402229103959</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002129685781118195</v>
+        <v>0.06869864326353294</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002468236318331132</v>
+        <v>0.06763616513635309</v>
       </c>
       <c r="N21" t="n">
-        <v>0.07264516600863795</v>
+        <v>0.04933650142346022</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02014939857159817</v>
+        <v>0.0284070964345593</v>
       </c>
       <c r="P21" t="n">
-        <v>0.06734854804732442</v>
+        <v>0.07477864079574911</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05100950435112291</v>
+        <v>0.03788051539695302</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04332692914319759</v>
+        <v>0.002488175125478301</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06788156286532565</v>
+        <v>0.004215354068240171</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01137211070525629</v>
+        <v>0.005450385806347573</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06606791340162642</v>
+        <v>0.02618095063624112</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01985338519467419</v>
+        <v>0.04092128865168804</v>
       </c>
       <c r="W21" t="n">
-        <v>0.06504847605082895</v>
+        <v>0.0730429429737099</v>
       </c>
       <c r="X21" t="n">
-        <v>0.005637281732280341</v>
+        <v>0.0226631632680045</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.06919498938570165</v>
+        <v>0.05253286522643356</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.04015977989932383</v>
+        <v>0.008783385427669517</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02444687495154633</v>
+        <v>0.07481717136857303</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05336766128362425</v>
+        <v>0.008606038453529072</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.06623750826467273</v>
+        <v>0.02473177036193808</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.06334344054047591</v>
+        <v>0.06459309032986009</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01346180364946791</v>
+        <v>0.01320674955954332</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.03266892755388275</v>
+        <v>0.07078276555992323</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.02347238775776239</v>
+        <v>0.008631583842826246</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0952597081214019</v>
+        <v>0.07588283420200163</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1108067405685342</v>
+        <v>0.1119794679680624</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005559973248365378</v>
+        <v>0.0639055641595785</v>
       </c>
       <c r="G22" t="n">
-        <v>0.009551413125065208</v>
+        <v>0.01116352797981947</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003289006432976852</v>
+        <v>0.06653016984227038</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01190269816787577</v>
+        <v>0.002426429181931383</v>
       </c>
       <c r="J22" t="n">
-        <v>0.007879758312396234</v>
+        <v>0.01410476402242279</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05624443345521861</v>
+        <v>0.03173736278230685</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02109888782769537</v>
+        <v>0.07434327575666468</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01254664392855543</v>
+        <v>0.01473634009089752</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05680272941070899</v>
+        <v>0.07424923316619823</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02286390159453966</v>
+        <v>0.007738886446070757</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03522735452901234</v>
+        <v>0.07251916752427431</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.007094402672315029</v>
+        <v>0.01232917850378298</v>
       </c>
       <c r="R22" t="n">
-        <v>0.05903771742555228</v>
+        <v>0.03037176553199566</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04834456868820664</v>
+        <v>0.009811315735864226</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06677008146062396</v>
+        <v>0.07906897786254356</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002022525172456634</v>
+        <v>0.01250665875603328</v>
       </c>
       <c r="V22" t="n">
-        <v>0.07176719312608394</v>
+        <v>0.0611918825449342</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01671878267269787</v>
+        <v>0.07764662268123242</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0586665666884426</v>
+        <v>0.007283208265898797</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0453089302602532</v>
+        <v>0.03631785193380296</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.002888541012057679</v>
+        <v>0.007120095414032468</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05468268648621422</v>
+        <v>0.04191116932697594</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.07960556153985217</v>
+        <v>0.05267883249678697</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07590067190645845</v>
+        <v>0.03409626982960642</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.03136995770587247</v>
+        <v>0.02471437497563946</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.04175252006549365</v>
+        <v>0.01523161149231715</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.03209170487401151</v>
+        <v>0.01721185334790757</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.06483106086620888</v>
+        <v>0.04705361034821124</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1577322707618889</v>
+        <v>0.203281806123856</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1198681074003058</v>
+        <v>0.1232544091571802</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06044495425595763</v>
+        <v>0.06125285794281198</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01178803180519343</v>
+        <v>0.02385573755172439</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01019260225715499</v>
+        <v>0.02422011469660006</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01353896761568332</v>
+        <v>0.03154651303127829</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02946372179643898</v>
+        <v>0.06557880755914317</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02131657468017597</v>
+        <v>0.01810375225295885</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005324664038230389</v>
+        <v>0.03078752348557188</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04119566587112281</v>
+        <v>0.02094011173466857</v>
       </c>
       <c r="N23" t="n">
-        <v>0.002386902898665133</v>
+        <v>0.03036158993382761</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01360325799560316</v>
+        <v>0.04014714980021755</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03283755432790356</v>
+        <v>0.002041233456098719</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.08755699119505465</v>
+        <v>0.06822611715258574</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05544596566795867</v>
+        <v>0.005993984532988484</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0198385312760057</v>
+        <v>0.006580055634798494</v>
       </c>
       <c r="T23" t="n">
-        <v>0.07853579969737307</v>
+        <v>0.03295652611961563</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02407040862715665</v>
+        <v>0.01635478964194865</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02429037601850742</v>
+        <v>0.02443579237586331</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03154539980066405</v>
+        <v>0.04231926547928729</v>
       </c>
       <c r="X23" t="n">
-        <v>0.08469037880423497</v>
+        <v>0.08215042970636167</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0636203729229696</v>
+        <v>0.03991594061836574</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05462039723278455</v>
+        <v>0.05988053908547756</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.02447932729644882</v>
+        <v>0.05434342587769678</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.04454766501190575</v>
+        <v>0.01812584064793343</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.00290335823475381</v>
+        <v>0.007178643247915368</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.07065173070716006</v>
+        <v>0.07430813712164873</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.03718051502129462</v>
+        <v>0.003852411338361605</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.006601462842084783</v>
+        <v>0.03233719155227741</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.05212061973592092</v>
+        <v>0.08220551842197295</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2152591697333179</v>
+        <v>0.2523183989992882</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.08771931537860701</v>
+        <v>0.09140464363436775</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02832548812526619</v>
+        <v>0.03705745565548524</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04354107839288698</v>
+        <v>0.02089597408224245</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005135004169143426</v>
+        <v>0.01135419444573172</v>
       </c>
       <c r="I24" t="n">
-        <v>0.008262885547646063</v>
+        <v>0.00513034466922169</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0005596377275500092</v>
+        <v>0.02436648594216066</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01629643006534133</v>
+        <v>0.007953204170479166</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001737162498152821</v>
+        <v>0.06804572121068657</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00451596659997727</v>
+        <v>0.06037007826386172</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05769476840764698</v>
+        <v>0.05646176373878665</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05567209057867763</v>
+        <v>0.0531212537509049</v>
       </c>
       <c r="P24" t="n">
-        <v>0.006440891662894231</v>
+        <v>0.005129002261973627</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04637772230716484</v>
+        <v>0.0262211022347517</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04830002252874289</v>
+        <v>0.06340776762902592</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0009138742874027663</v>
+        <v>0.0118966703228089</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02225040005103336</v>
+        <v>0.03385019595910378</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03480371294671245</v>
+        <v>0.001235513127461202</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0875429848011474</v>
+        <v>0.05912225384366913</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03809326094138409</v>
+        <v>0.01114862044637379</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0383447941821668</v>
+        <v>0.01942099363103067</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.05076576070532073</v>
+        <v>0.06601962384858764</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01898607579384409</v>
+        <v>0.01781098544494765</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.05092532457749158</v>
+        <v>0.07027911325300734</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.09482650027481244</v>
+        <v>0.0611707597653773</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.09026094196960402</v>
+        <v>0.03453988623690528</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.001099772574669876</v>
+        <v>0.03048532625408294</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.09962529703355173</v>
+        <v>0.03656822847583205</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01309633693180662</v>
+        <v>0.05309007967960453</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.03560581431796133</v>
+        <v>0.05384740165589588</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.02728152584042658</v>
+        <v>-0.02800339258122476</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1120238525291299</v>
+        <v>0.1079415520531882</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06822455830881359</v>
+        <v>0.07633592727952618</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04932387172123889</v>
+        <v>0.06963107503833338</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01902488316023977</v>
+        <v>0.005803655489511545</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06291393518263384</v>
+        <v>0.04346041157613893</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02558784167624804</v>
+        <v>0.02907982056646213</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07071170298084423</v>
+        <v>0.06548356489350686</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04728044886867694</v>
+        <v>0.08328323726174193</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05472911900134435</v>
+        <v>0.04933856770870299</v>
       </c>
       <c r="N25" t="n">
-        <v>0.003001521335894761</v>
+        <v>0.06034738951507106</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003555091457025119</v>
+        <v>0.004158899409845554</v>
       </c>
       <c r="P25" t="n">
-        <v>0.005397057193020793</v>
+        <v>0.01505746676526109</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05382885761788055</v>
+        <v>0.01991390339067524</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03208156739844537</v>
+        <v>0.02296313612439468</v>
       </c>
       <c r="S25" t="n">
-        <v>0.03656670914984884</v>
+        <v>0.03013547326152923</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04752004862219612</v>
+        <v>0.02148264364029408</v>
       </c>
       <c r="U25" t="n">
-        <v>0.006540545121117186</v>
+        <v>0.001124746895889342</v>
       </c>
       <c r="V25" t="n">
-        <v>0.07165935641485192</v>
+        <v>0.04614592627321592</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03179254365129335</v>
+        <v>0.07117448149564273</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01246725033796067</v>
+        <v>0.01941778796985048</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.07512598189128819</v>
+        <v>0.04172220295769416</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0563317184717422</v>
+        <v>0.006515984306523146</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04418224348533838</v>
+        <v>0.05716601892424667</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.03402177836155488</v>
+        <v>0.00790869107306962</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.005302352593347053</v>
+        <v>0.05548458438791787</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.04176280245577529</v>
+        <v>0.08124500632341769</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0008943699326797808</v>
+        <v>0.002205072645808137</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.003988434128876973</v>
+        <v>0.0062087836054359</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.03618340947982295</v>
+        <v>0.007205541220293492</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.03427151713648723</v>
+        <v>0.02664859338819538</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1006063005617123</v>
+        <v>0.1009711781462012</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02488819357236531</v>
+        <v>0.00569239759806485</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01197944391333266</v>
+        <v>0.009430562497797274</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03341473359009926</v>
+        <v>0.02562408935656048</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0114516657247707</v>
+        <v>0.02972394677091391</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01875564511393668</v>
+        <v>0.03653665242564437</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001078614563786574</v>
+        <v>0.01767890792425924</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08350242752531241</v>
+        <v>0.00393556039132383</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03204112555596204</v>
+        <v>0.05316372881428181</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02953017400975974</v>
+        <v>0.06415897601497224</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005608084414520161</v>
+        <v>0.01055648602177354</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0409882532181059</v>
+        <v>0.04953911904712235</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0830223658545626</v>
+        <v>0.06458130416313212</v>
       </c>
       <c r="R26" t="n">
-        <v>0.003179935684320038</v>
+        <v>0.01351109185313848</v>
       </c>
       <c r="S26" t="n">
-        <v>0.007296435710117501</v>
+        <v>0.037156809471387</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01391241620715743</v>
+        <v>0.007701469733897704</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03966076826787555</v>
+        <v>0.04601249079041756</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07584147822734494</v>
+        <v>0.07582517084633202</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0582717653416503</v>
+        <v>0.06256052084113285</v>
       </c>
       <c r="X26" t="n">
-        <v>0.006172378940085036</v>
+        <v>0.01081340997600102</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.02385085669350783</v>
+        <v>0.01862834960622112</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.002044459510263217</v>
+        <v>0.01861705447255358</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01547731496846283</v>
+        <v>0.07108180858641265</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.07736911198222649</v>
+        <v>0.07075759184138347</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07303168617613492</v>
+        <v>0.07050431219911939</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.05321709114264773</v>
+        <v>0.003813884113012247</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.06156439219700559</v>
+        <v>0.03221876556484275</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.0596744897821453</v>
+        <v>0.01430210162470624</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.05414544521994917</v>
+        <v>0.07587343745359586</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1882337091503561</v>
+        <v>0.2119075707299745</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1119564251264875</v>
+        <v>0.1158763792826309</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0224156416810973</v>
+        <v>0.05683923462423524</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00652050637256837</v>
+        <v>0.05843642761507969</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06000956001731324</v>
+        <v>0.0008693051855129546</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07682247663326706</v>
+        <v>0.06643857395787613</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04910698761205425</v>
+        <v>0.001840778193074266</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07996432360508691</v>
+        <v>0.07739306490683552</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02334307487882556</v>
+        <v>0.02869725598642415</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0134718966214584</v>
+        <v>0.002316786125348686</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04898834922728906</v>
+        <v>0.03438899737118634</v>
       </c>
       <c r="O27" t="n">
-        <v>0.005012405670627991</v>
+        <v>0.01163097258163412</v>
       </c>
       <c r="P27" t="n">
-        <v>0.002706499276449073</v>
+        <v>0.01023621927767184</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02550980899198229</v>
+        <v>0.05550768329268611</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01326446792584326</v>
+        <v>0.01900878864208521</v>
       </c>
       <c r="S27" t="n">
-        <v>0.00199529717823129</v>
+        <v>0.07681783478817392</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02874717391134924</v>
+        <v>0.03220484351900534</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05734286533792744</v>
+        <v>0.0249875308847195</v>
       </c>
       <c r="V27" t="n">
-        <v>0.06552406916996738</v>
+        <v>0.03359844154006428</v>
       </c>
       <c r="W27" t="n">
-        <v>0.07354664516710677</v>
+        <v>0.07525833837705508</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01801663186290741</v>
+        <v>0.005909874128646242</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01985177714214114</v>
+        <v>0.05409246117539705</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0726253706645415</v>
+        <v>0.06267030681055995</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.05114409101915465</v>
+        <v>0.04290072595595768</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04034929555318501</v>
+        <v>0.02811576462440598</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.007453335970680436</v>
+        <v>0.04135547361436262</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.05308351129131689</v>
+        <v>0.003212952054358071</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0627334171929691</v>
+        <v>0.03056585283444812</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.01836050563998041</v>
+        <v>0.02787141923945904</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.002090014384678545</v>
+        <v>0.03683409269373687</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2040934123581211</v>
+        <v>0.2214821585090581</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1188181238748333</v>
+        <v>0.1174248823422172</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0169990240242993</v>
+        <v>0.01804870337113806</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01714082594973849</v>
+        <v>0.02587205939390609</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01092506044934578</v>
+        <v>0.02345270072075566</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04410067866696611</v>
+        <v>0.07040871087836147</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006861946011904632</v>
+        <v>0.005724355935839825</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05942170844701206</v>
+        <v>0.0321075143499742</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07095586966681708</v>
+        <v>0.01740918257385447</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03096159443813318</v>
+        <v>0.06953090357954148</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00199085678977759</v>
+        <v>0.01117653201129082</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02433877080710911</v>
+        <v>0.05317301273477966</v>
       </c>
       <c r="P28" t="n">
-        <v>0.06082437326426145</v>
+        <v>0.054432963782805</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.07798407131500673</v>
+        <v>0.02588588977554564</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02056333233543546</v>
+        <v>0.06787570261193394</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01239880441795831</v>
+        <v>0.0151205892418272</v>
       </c>
       <c r="T28" t="n">
-        <v>0.07475394128328591</v>
+        <v>0.02615027487143781</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007372703029352486</v>
+        <v>0.002544788674816637</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06269042380728897</v>
+        <v>0.07209999393961582</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07528942113850162</v>
+        <v>0.06744689489573025</v>
       </c>
       <c r="X28" t="n">
-        <v>0.002667400821677152</v>
+        <v>0.02737975658102598</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03675182546500274</v>
+        <v>0.04309095150887098</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01138105824967695</v>
+        <v>0.01058561310088643</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03224420470896677</v>
+        <v>0.03561474802262676</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.06922119905044674</v>
+        <v>0.06317313556019769</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.00196705268817239</v>
+        <v>0.05325519450589141</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02429459234981853</v>
+        <v>0.005210094191498513</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0755130455224301</v>
+        <v>0.06161380378962429</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.002530844137580836</v>
+        <v>0.006474127761242453</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.06785537116403348</v>
+        <v>0.03514180163498153</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.05538639153249468</v>
+        <v>0.002405485565558058</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1421176438185051</v>
+        <v>0.1349392215756202</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1062039850937431</v>
+        <v>0.07656269775899885</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03842171100519182</v>
+        <v>0.08205965835573721</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08026814034254233</v>
+        <v>0.02192014044415844</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02083167140766098</v>
+        <v>0.01993953549895216</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03060839967727759</v>
+        <v>0.05315395960760531</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07892986524179814</v>
+        <v>0.02230415857771782</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00722302575251896</v>
+        <v>0.004629482309588171</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003018229436314093</v>
+        <v>0.01477288452407936</v>
       </c>
       <c r="N29" t="n">
-        <v>0.006083338538336985</v>
+        <v>0.03013566233056503</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0185472727555193</v>
+        <v>0.05337338771783049</v>
       </c>
       <c r="P29" t="n">
-        <v>0.006648476477858126</v>
+        <v>0.02411497162189591</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1008022678098311</v>
+        <v>0.007297464099180867</v>
       </c>
       <c r="R29" t="n">
-        <v>0.04107308167753101</v>
+        <v>0.08419548493753061</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01007700167938115</v>
+        <v>0.01644903038178467</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0001704303301934254</v>
+        <v>0.02415230881796348</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03764166861889626</v>
+        <v>0.008842359941619716</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1020374187506697</v>
+        <v>0.05358452060157812</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03688123160257955</v>
+        <v>0.038693959096046</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0001303106203199072</v>
+        <v>0.01129714698711942</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0270605874393846</v>
+        <v>0.01529383539615096</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.04064868746994519</v>
+        <v>0.06727184061443679</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.05494437394303136</v>
+        <v>0.05987519648532084</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.07267174323751882</v>
+        <v>0.07756850758988994</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.02470303862080407</v>
+        <v>0.02315097363547196</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.02317721063270633</v>
+        <v>0.007892700703707151</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.002970244986658609</v>
+        <v>0.01857108835216364</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.009937204888908136</v>
+        <v>0.02245789238857651</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.01828938196287944</v>
+        <v>0.06043915122433068</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1282981536449</v>
+        <v>0.1056326141597872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09072142736678394</v>
+        <v>0.09133348214766963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03199072162495884</v>
+        <v>0.007624129246404707</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03804379070891874</v>
+        <v>0.05104489247098607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03637942956726779</v>
+        <v>0.0524421023148627</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06300177558961435</v>
+        <v>0.01735285598487095</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02358549483762188</v>
+        <v>0.01997388774869454</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03845470446169075</v>
+        <v>0.02387823834634509</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007305985930982773</v>
+        <v>0.02507773925989739</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03007439390843948</v>
+        <v>0.009959448987843325</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02176000324471109</v>
+        <v>0.0178004350792076</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008642567581223205</v>
+        <v>0.01515808560324374</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02288460248104606</v>
+        <v>0.05258450882914801</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03552889333019928</v>
+        <v>0.04510978207262244</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04372541942990785</v>
+        <v>0.04692779209289935</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02009891455874608</v>
+        <v>0.0183956645412887</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06614971499645131</v>
+        <v>0.02189225078702254</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02958213085380939</v>
+        <v>0.04654260125304682</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05947612775273137</v>
+        <v>0.04882730143282959</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00181914175005202</v>
+        <v>0.003724556494783397</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06489275124162724</v>
+        <v>0.03371609534610041</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05756914836369205</v>
+        <v>0.05895055451343459</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06657457866186535</v>
+        <v>0.03467741299507255</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06404756167394049</v>
+        <v>0.04266406668354887</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05072158148336795</v>
+        <v>0.05967536065856367</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.006900400109807458</v>
+        <v>0.005805206545713544</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0134623737029429</v>
+        <v>0.0567684653618172</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01202795440625951</v>
+        <v>0.06054233787599735</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.05935808382876455</v>
+        <v>0.06129347980275926</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.02594175391936029</v>
+        <v>0.06159074767099564</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1109282614759383</v>
+        <v>0.05477401295660311</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1095601128968005</v>
+        <v>0.1028609928095331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04927295698453343</v>
+        <v>0.05722607140380825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01270209858165629</v>
+        <v>0.01022252717172423</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02097333904355677</v>
+        <v>0.03228995377419906</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08091006780793839</v>
+        <v>0.03735207164439124</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03145273559632245</v>
+        <v>0.05701481937644332</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001193661867031478</v>
+        <v>0.03882437227147567</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08697890396687338</v>
+        <v>0.06377133735141004</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04990713605294998</v>
+        <v>0.06086785539829343</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03352924892590427</v>
+        <v>0.02355647758193525</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03562271514566718</v>
+        <v>0.04066116641255813</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004334500724131093</v>
+        <v>0.00827106117780241</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0855982548259023</v>
+        <v>0.03720027890086276</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01475613426573254</v>
+        <v>0.03900356135814362</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0213540497232064</v>
+        <v>0.006141827747919376</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05280998516058421</v>
+        <v>0.04805827003220472</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01880463713075587</v>
+        <v>0.002329863423429247</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005782374410249932</v>
+        <v>0.0448522337281511</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04112710732229173</v>
+        <v>0.02784324445737824</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01764781257447494</v>
+        <v>0.03778388438535744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07857852695465453</v>
+        <v>0.06641781872463567</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04054146445828329</v>
+        <v>0.05546514228013867</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04293198259434866</v>
+        <v>0.01598624612346516</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.008490448486219227</v>
+        <v>0.04629122339826515</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01539106631738272</v>
+        <v>0.01110283971472725</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02833173108447134</v>
+        <v>0.0298578170202199</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.08457935486239655</v>
+        <v>0.03751439945630328</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002074295247952879</v>
+        <v>0.02658913531996704</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03432340988452801</v>
+        <v>0.03750450036479042</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.153288179077933</v>
+        <v>0.1651846152990004</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1082999251056123</v>
+        <v>0.1101525540449065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006295265484593178</v>
+        <v>0.02011292489987499</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05175072756976223</v>
+        <v>0.07492579183491292</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01472536816149548</v>
+        <v>0.03477012832441405</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0204988627732658</v>
+        <v>0.03051083665533456</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01378577020122138</v>
+        <v>0.007073457909699502</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006783800705382424</v>
+        <v>0.005206567700330162</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05908482786766675</v>
+        <v>0.0207084599505621</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04844789497234662</v>
+        <v>0.04652790467045316</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04601445728086345</v>
+        <v>0.07215457795925793</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005954989622758033</v>
+        <v>0.009962644790170288</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06744310187151065</v>
+        <v>0.02800775416540489</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02375214977581356</v>
+        <v>0.01849048526549879</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01082224566206288</v>
+        <v>0.06693716524033749</v>
       </c>
       <c r="S4" t="n">
-        <v>0.008459545080715322</v>
+        <v>0.01711731133655346</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06455792209534553</v>
+        <v>0.07283695353434629</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03133509303088733</v>
+        <v>0.0106128419376084</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01982367304490596</v>
+        <v>0.04492023140938892</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07905253657165139</v>
+        <v>0.03588657668488705</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03657327043502197</v>
+        <v>0.07741195061191669</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.007969268766436772</v>
+        <v>0.01843265602080108</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05930803408928667</v>
+        <v>0.002430255072284069</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02450461255664812</v>
+        <v>0.003636925701317895</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06502465163196935</v>
+        <v>0.06438998202500119</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05870536032592853</v>
+        <v>0.006627244972331488</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.07010302403101903</v>
+        <v>0.04979958034423296</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01181035576532725</v>
+        <v>0.05723654613761996</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.04941836743471901</v>
+        <v>0.055983727941877</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.03799482319139544</v>
+        <v>0.04728851690358258</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.2881273104338656</v>
+        <v>-0.2971865781107922</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1336420604864568</v>
+        <v>0.2175748754446604</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0846868683384376</v>
+        <v>0.07108998799084501</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004247999201801423</v>
+        <v>0.01223723545473822</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003650204899956897</v>
+        <v>0.05727378971049901</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003625141015526481</v>
+        <v>0.004539004312996436</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08068827739620515</v>
+        <v>0.05295711120577826</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001329282893477445</v>
+        <v>0.09582432726592938</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02569881379553275</v>
+        <v>0.002619588850414091</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06279822376761521</v>
+        <v>0.004671151772154298</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02853739791133245</v>
+        <v>0.003872032337760627</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04080360629389258</v>
+        <v>0.01021923487272317</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0486905777618663</v>
+        <v>0.01338497080516013</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03070528099139142</v>
+        <v>0.03992535752889431</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005160892278348658</v>
+        <v>0.03967720590605233</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04041740764378332</v>
+        <v>0.09630031026387573</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03790447889345766</v>
+        <v>0.05577919457036678</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02577867194860538</v>
+        <v>0.01270474606301149</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0418198499085127</v>
+        <v>0.06605954713033019</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07574394168615708</v>
+        <v>0.04712734823867323</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02215115065256699</v>
+        <v>0.08395281922703733</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.006270197762901971</v>
+        <v>0.005930247588225648</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06704059729980269</v>
+        <v>0.01439496324241744</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.07700022505179314</v>
+        <v>0.09016507012248688</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02623790590199835</v>
+        <v>0.0347764342703324</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01739975938616539</v>
+        <v>0.01149038138194852</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.004089612414485693</v>
+        <v>0.001741187385779493</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01701503019035968</v>
+        <v>0.01586682200533346</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03338683477459881</v>
+        <v>0.006665473987145661</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.08712176993942655</v>
+        <v>0.04875445650909043</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3336595871144162</v>
+        <v>-0.396346212389832</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2312917693081716</v>
+        <v>0.22977019488579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02313748696239736</v>
+        <v>0.002670695190309353</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03144315395379152</v>
+        <v>0.05314987625181442</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01734042166441077</v>
+        <v>0.004676209646264248</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07815002535545484</v>
+        <v>0.02293786532520721</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03374424427673985</v>
+        <v>0.02037993390667285</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001522223272543562</v>
+        <v>0.002982623257855689</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03353822625086605</v>
+        <v>0.02632408976763705</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01385373841984205</v>
+        <v>0.001793488095078434</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01189476105879827</v>
+        <v>0.06552621558242809</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003467579789142031</v>
+        <v>0.01809231556461008</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04485429040531186</v>
+        <v>0.04075661081882519</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0391876035380062</v>
+        <v>0.03166976880717417</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03957332349303641</v>
+        <v>0.02099064055444321</v>
       </c>
       <c r="S6" t="n">
-        <v>0.070313599963868</v>
+        <v>0.05834931117953734</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07657534638156897</v>
+        <v>0.04814530048587069</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003989936951134684</v>
+        <v>0.01453252138687067</v>
       </c>
       <c r="V6" t="n">
-        <v>0.07279249538320536</v>
+        <v>0.05899777593677683</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07025073854011395</v>
+        <v>0.03821513298867366</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01910062868679675</v>
+        <v>0.01930711817335727</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04038201920165634</v>
+        <v>0.02959416186213673</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00871320009405737</v>
+        <v>0.005619272256847743</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01922150345080899</v>
+        <v>0.0005082827504607586</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.008520607965311403</v>
+        <v>0.07864068010636543</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.02189180154709349</v>
+        <v>0.06529371375015854</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01643535361731402</v>
+        <v>0.04621639190265314</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06750155724081323</v>
+        <v>0.07067842879196376</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.07894009427769762</v>
+        <v>0.08062098561629229</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.05366403825821892</v>
+        <v>0.0733305900437152</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1862176858016992</v>
+        <v>0.1536355630268982</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.285859758352819</v>
+        <v>0.2981566130653504</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07229368446764006</v>
+        <v>0.06101395031834061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07015508527078607</v>
+        <v>0.04762005036275117</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07477123774351337</v>
+        <v>0.08198830350784059</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009612367953909176</v>
+        <v>0.006210676704443511</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0073169681264749</v>
+        <v>0.007020563717474825</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04550389332037802</v>
+        <v>0.08167987785546919</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009195326816990671</v>
+        <v>0.05622000307111955</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01569638923746189</v>
+        <v>0.03579314615618161</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02103250944111703</v>
+        <v>0.05433359137505304</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02314730253718608</v>
+        <v>0.001602176270496826</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001733100297876289</v>
+        <v>0.01204880218754832</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05528950643035472</v>
+        <v>0.01486348680834342</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06001309467360807</v>
+        <v>0.01922608942910288</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0007706059344647671</v>
+        <v>0.02047353724620899</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006523375820256777</v>
+        <v>0.0616870847951479</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05288086469591304</v>
+        <v>0.03497882316475143</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04284122367288432</v>
+        <v>0.03353452269324898</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05234033147921682</v>
+        <v>0.04758140952491913</v>
       </c>
       <c r="X7" t="n">
-        <v>0.06219887881767249</v>
+        <v>0.05889330598723488</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01761219619267887</v>
+        <v>0.002784969466168826</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02240874144427119</v>
+        <v>0.01731320495227012</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07093310423497916</v>
+        <v>0.05175625470120534</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06524768109248615</v>
+        <v>0.01016713979175247</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01932636570219449</v>
+        <v>0.03567514915020205</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.007294892592988132</v>
+        <v>0.001556945972647319</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03492845004278371</v>
+        <v>0.02501362010991161</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.04580954632944959</v>
+        <v>0.03428603715847161</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.03312327563046401</v>
+        <v>0.08467727752169379</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2933361746628487</v>
+        <v>0.2978431358726834</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2462082000521798</v>
+        <v>0.2483578204408668</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01889053279647732</v>
+        <v>0.01122882406427564</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06883131105274902</v>
+        <v>0.04527015721857298</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001237897720108364</v>
+        <v>0.001129419270060062</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05265806220196632</v>
+        <v>0.07339279399739639</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03051027106187401</v>
+        <v>0.06317552657321129</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004319812239530386</v>
+        <v>0.00855663593386064</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06404992886321152</v>
+        <v>0.003216024007630871</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01465081822733823</v>
+        <v>0.006273183289859278</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01892923757014404</v>
+        <v>0.0194636907127721</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02280737436740597</v>
+        <v>0.005123906454829747</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05252701948586719</v>
+        <v>0.001132622561862802</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01281744814734206</v>
+        <v>0.0473064484907619</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01225494124415376</v>
+        <v>0.03425275626480756</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01118726739893002</v>
+        <v>0.08952059876647857</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07473397843672942</v>
+        <v>0.01737135579746024</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002784455334770922</v>
+        <v>0.008371473454725312</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06229371353977989</v>
+        <v>0.07497181106534567</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02733015871305979</v>
+        <v>0.05113256715530688</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06971799109025914</v>
+        <v>0.08892151824743731</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02655026773481236</v>
+        <v>0.0838996911600888</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03198643163482621</v>
+        <v>0.001047098887502632</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0564363035534237</v>
+        <v>0.02370538642899548</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06395029561292172</v>
+        <v>0.06622774309957444</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.05166392522375447</v>
+        <v>0.006736795236597952</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.008673840872298815</v>
+        <v>0.05804962872917148</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.06156383021459499</v>
+        <v>0.02544434319242124</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01130038563491857</v>
+        <v>0.003499283489623373</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.06534250002675152</v>
+        <v>0.08157871644936937</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.07969333450842596</v>
+        <v>0.111257285428306</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3068927707362944</v>
+        <v>0.3173498379615911</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07660814487889268</v>
+        <v>0.08779965232206144</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0112508581724149</v>
+        <v>0.00137380842892664</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0513016911779788</v>
+        <v>0.03000640809716003</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05557488068062049</v>
+        <v>0.05637697381771831</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03765372005727223</v>
+        <v>0.07783103206159696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06217484600955114</v>
+        <v>0.07340335513564794</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06449909666250744</v>
+        <v>0.04686688847782789</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006163587481877437</v>
+        <v>0.004113887386470307</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0434059167257854</v>
+        <v>0.02938925005933426</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07956205840624606</v>
+        <v>0.0705444765328446</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03320731076952368</v>
+        <v>0.001017457900991373</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05470202955534773</v>
+        <v>0.05190121360894511</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01650083628270684</v>
+        <v>0.01592464869004943</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02490382827201669</v>
+        <v>0.05191944036820585</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05053580145764904</v>
+        <v>0.04822428826542973</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008900541449963884</v>
+        <v>0.03762704693457578</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01659217107153765</v>
+        <v>0.02962100707317939</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04089651486448675</v>
+        <v>0.002081303361929902</v>
       </c>
       <c r="X9" t="n">
-        <v>0.08267190763976041</v>
+        <v>0.02827334078848801</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01415574175556133</v>
+        <v>0.01162778762196748</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05979668156187066</v>
+        <v>0.05095628739220043</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.03270471367486563</v>
+        <v>0.05014264001236191</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.009793833106121046</v>
+        <v>0.006100025345698608</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.001908426796179469</v>
+        <v>0.03914822601571666</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.03064951415355466</v>
+        <v>0.0479211660519104</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.002029041350445876</v>
+        <v>0.003933503859247075</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01417351935767229</v>
+        <v>0.0147200640850248</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.01768278662758978</v>
+        <v>0.03115482030448977</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1301092900904414</v>
+        <v>0.1576573670770975</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1625732665374645</v>
+        <v>0.163660769649564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03528138455477202</v>
+        <v>0.08563398571153316</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04297359025953011</v>
+        <v>0.0768789866295372</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01059406246158016</v>
+        <v>0.01018949248820591</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007154706374553446</v>
+        <v>0.01473856910105345</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008911362569981979</v>
+        <v>0.01758759130119324</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03957530276462997</v>
+        <v>0.01049111738736697</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04820635222684035</v>
+        <v>0.06622343728556991</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01019921189581809</v>
+        <v>0.02952759720832345</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008281670645993486</v>
+        <v>0.03054182846594743</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00680693340423359</v>
+        <v>0.02439886696183544</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03291750835901773</v>
+        <v>0.00315948143336388</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04019156114065696</v>
+        <v>0.0358676972442797</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08169843869739936</v>
+        <v>0.09614475892975491</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05104768373269784</v>
+        <v>0.0004246284608312078</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08336908645093248</v>
+        <v>0.03653929590045073</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02344090195002806</v>
+        <v>0.00735020703089229</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03630347176230956</v>
+        <v>0.06908794618439787</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03726143729270023</v>
+        <v>0.01117539338671347</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00252805840967157</v>
+        <v>0.007793639939735786</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0280133884505136</v>
+        <v>0.09253256580554545</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06376975506873853</v>
+        <v>0.0199056600196766</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01454376832790489</v>
+        <v>0.006168989619498272</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.06069645220073152</v>
+        <v>0.03878176268647793</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02619412175088274</v>
+        <v>0.01985240994138797</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.00650765742457337</v>
+        <v>0.01582889580548463</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0261034149044794</v>
+        <v>0.004940144059740022</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.08185716266539958</v>
+        <v>0.07340268725700101</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.08557155425342954</v>
+        <v>0.09483236375420197</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0348079360263512</v>
+        <v>0.04312071461089294</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1830468758501197</v>
+        <v>0.1691905088006139</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06856079623480264</v>
+        <v>0.04477070440407599</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06889298576208074</v>
+        <v>0.01973914648602114</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03329738800225737</v>
+        <v>0.006599592464277505</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01490279811405929</v>
+        <v>0.02038642112605481</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04927227578472838</v>
+        <v>0.06105833423463279</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06447516410675763</v>
+        <v>0.02661643148590147</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009842413746683208</v>
+        <v>0.03451223400843732</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01311358879373061</v>
+        <v>0.04089374491192808</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0210698835269894</v>
+        <v>0.007141419704111238</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01328562323552511</v>
+        <v>0.02166870551727668</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02948547088076406</v>
+        <v>0.01194844264335288</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0007990934941352641</v>
+        <v>0.04041542899603974</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07127202773614294</v>
+        <v>0.0659944000651497</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02927218161794879</v>
+        <v>0.01162181943930115</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03401479296430844</v>
+        <v>0.009116518981397415</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02155891652363721</v>
+        <v>0.002627384859263324</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0643093041864919</v>
+        <v>0.07257297507018401</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0704953677031797</v>
+        <v>0.07824150185400285</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02601102573535847</v>
+        <v>0.01541736605500699</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.005327376500203348</v>
+        <v>0.0007337248686728577</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.005241025142265571</v>
+        <v>2.700022030193837e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07554545376701872</v>
+        <v>0.02440995038230124</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.003047946310992568</v>
+        <v>0.06337777288778099</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01022766617344343</v>
+        <v>0.06318931126731415</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.07292232138222725</v>
+        <v>0.06562295701647096</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.03494719676803307</v>
+        <v>0.08552211164528103</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.01319483687588604</v>
+        <v>0.03321722384352259</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.07561507893034897</v>
+        <v>0.0725573755619391</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.08179399073235775</v>
+        <v>0.0732585551357402</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.141563492477191</v>
+        <v>0.1432098921400125</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03491347140213066</v>
+        <v>0.02283969901326517</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0658637860747545</v>
+        <v>0.0273862386364777</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003806659932653296</v>
+        <v>0.03009353797237617</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01235047701130282</v>
+        <v>0.01345221294700927</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003732451891173362</v>
+        <v>0.0003924138129744748</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01600830511563592</v>
+        <v>0.009567100070870787</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01170204644795889</v>
+        <v>0.05794697709771134</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05803917476984057</v>
+        <v>0.0331467169222229</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01941454930634272</v>
+        <v>0.009473520816051474</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02677161507097351</v>
+        <v>0.01924886976408229</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03094056821836375</v>
+        <v>0.02702027714071467</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01208002160394212</v>
+        <v>0.0002493344910517794</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05625301759970878</v>
+        <v>0.04347476087768945</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02078055591302957</v>
+        <v>0.04995507279369481</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06894071697814026</v>
+        <v>0.05083692901519165</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03977622561587323</v>
+        <v>0.01598082421094233</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06116670309186444</v>
+        <v>0.04642591173297032</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06921325787909259</v>
+        <v>0.07336382466569898</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06620156699537388</v>
+        <v>0.01484273990069903</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.04834704639629515</v>
+        <v>0.05113821635208962</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01020403358523945</v>
+        <v>0.08046454595794483</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0101243221797708</v>
+        <v>0.062306975830057</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.07332508629273331</v>
+        <v>0.07629113385289982</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.03270080684924335</v>
+        <v>0.01289017664809107</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002895433854978028</v>
+        <v>0.01298102785504948</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01487069857826619</v>
+        <v>0.00102071183269591</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05638624033673483</v>
+        <v>0.07659408991470966</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.07319116100858399</v>
+        <v>0.08061615987476807</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1038180429345155</v>
+        <v>0.06948185498877853</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1597788179789014</v>
+        <v>0.1654843991663561</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09763154608150196</v>
+        <v>0.07816343394828473</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02619177529933333</v>
+        <v>0.01420945327227954</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08549886579883569</v>
+        <v>0.03491985891731626</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01132393468750248</v>
+        <v>0.04759255381179375</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007693954045433015</v>
+        <v>0.02009167717894445</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02437531999658834</v>
+        <v>0.0265258336676832</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002746660325049045</v>
+        <v>0.01168341681695673</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03370510406793387</v>
+        <v>0.06640132745484659</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02971248884041192</v>
+        <v>0.05347942691083052</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0008067299272725151</v>
+        <v>0.00042662465979047</v>
       </c>
       <c r="P13" t="n">
-        <v>0.006250881324766098</v>
+        <v>0.05102816540488696</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03175698833916436</v>
+        <v>0.06157866287233726</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07368024613880257</v>
+        <v>0.08487265141791664</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04413964924669671</v>
+        <v>0.007495497913888945</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07819551444470826</v>
+        <v>0.02533471944838252</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04609781445590466</v>
+        <v>0.06116428811355681</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04220098184855129</v>
+        <v>0.02007076338357192</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02720203701328687</v>
+        <v>0.07489529287263594</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09589111421488544</v>
+        <v>0.001047518798911578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01466532391151025</v>
+        <v>0.05810408157111117</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.009886451030585674</v>
+        <v>0.04419407993183908</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02950737691064756</v>
+        <v>0.03441215457902261</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01124898132107612</v>
+        <v>0.009563861998225308</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.002635904958376861</v>
+        <v>0.001043654845211586</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.101767124878406</v>
+        <v>0.05816469281540164</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0217874917665976</v>
+        <v>0.01044142732641337</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.005858449682664715</v>
+        <v>0.0003734873448330332</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.03754128944350689</v>
+        <v>0.04272139272312711</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1081417088164642</v>
+        <v>0.1091795093241323</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1269065393037855</v>
+        <v>0.1270711566264968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04569265783070651</v>
+        <v>0.03787044741450031</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0005717549191012862</v>
+        <v>0.02772105909505958</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002570427144593127</v>
+        <v>0.02419200280941578</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003925747752555925</v>
+        <v>0.01403702322423687</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01068850770947006</v>
+        <v>0.01931716459305135</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01240391602129782</v>
+        <v>0.02334797577374772</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009821297541144769</v>
+        <v>0.0001991615126674765</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03307544938510835</v>
+        <v>0.08070852978284586</v>
       </c>
       <c r="N14" t="n">
-        <v>0.003177127312954216</v>
+        <v>0.02782336092115522</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07555470229825467</v>
+        <v>0.01621628653209232</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02002863630560977</v>
+        <v>0.005692062048468843</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03961729803316998</v>
+        <v>0.0326399381665735</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03745693651711784</v>
+        <v>0.02236988111836404</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05827160185073838</v>
+        <v>0.01503672291613575</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08890667083515971</v>
+        <v>0.03296907113359716</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008621072307122873</v>
+        <v>0.007487445099141229</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04692734642293676</v>
+        <v>0.08112465451139386</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05789655037168952</v>
+        <v>0.07192726304432215</v>
       </c>
       <c r="X14" t="n">
-        <v>0.05122727845784897</v>
+        <v>0.01153092334974367</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08407366454465483</v>
+        <v>0.07902324838417137</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.04778807062040649</v>
+        <v>0.06558358288229944</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01448445014957223</v>
+        <v>0.02242503282516699</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02791554940556708</v>
+        <v>0.0435135143992012</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.003763081955518772</v>
+        <v>0.01271181776725494</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0008874413608740409</v>
+        <v>0.04118071680749424</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.08579915928788964</v>
+        <v>0.04917901298207848</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04599373077435307</v>
+        <v>0.07102269842073525</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.09061883796099411</v>
+        <v>0.06314940248508548</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1980689796475784</v>
+        <v>0.2099341306981943</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1424769834089948</v>
+        <v>0.1407299952877167</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04515662134433674</v>
+        <v>0.05051835794494507</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05938750887462244</v>
+        <v>0.06673219624726928</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04447435802097413</v>
+        <v>0.03830239115437672</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06668472211515854</v>
+        <v>0.01598629055610972</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002016592945900392</v>
+        <v>0.01858794847349799</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03942126082473776</v>
+        <v>0.06729131860128648</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01292940812075745</v>
+        <v>0.01313268079894465</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001570211568684033</v>
+        <v>0.02543203091443533</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0700419823102877</v>
+        <v>0.06307422932414732</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02511161073662277</v>
+        <v>0.05098540109357382</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06761092293642428</v>
+        <v>0.05179072387073966</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06280857744295489</v>
+        <v>0.03291493765357748</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05418847509167453</v>
+        <v>0.0514158038169272</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05198997111205753</v>
+        <v>0.01494543797378657</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0666140424311443</v>
+        <v>0.08074047315826723</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03485894824001359</v>
+        <v>0.01223460491243196</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01024957054708514</v>
+        <v>0.008632285322440255</v>
       </c>
       <c r="W15" t="n">
-        <v>0.00116903450273047</v>
+        <v>0.01970970770550376</v>
       </c>
       <c r="X15" t="n">
-        <v>0.02455698021931656</v>
+        <v>0.003751810388847118</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03719404466466004</v>
+        <v>0.001760615475954092</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.002451993471537425</v>
+        <v>0.04235347044652168</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.003161121883115951</v>
+        <v>0.07415258297786043</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.07156453276145476</v>
+        <v>0.07682750520652488</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.006245796276316971</v>
+        <v>0.008071367130332466</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.02254972580587634</v>
+        <v>0.0003676079814305199</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.03627921877925518</v>
+        <v>0.005642850794111264</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.03324540717707594</v>
+        <v>0.05664654456912489</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04646735979522409</v>
+        <v>0.04799882550703218</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2567939686737156</v>
+        <v>0.2462780398456341</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.09812863886536169</v>
+        <v>0.09783227851688416</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005991371649866541</v>
+        <v>0.03560033064149982</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01793172265461521</v>
+        <v>0.05279383800250395</v>
       </c>
       <c r="H16" t="n">
-        <v>0.008583273983749624</v>
+        <v>0.002902140712969991</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009292827296895137</v>
+        <v>0.003945176643518216</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01975695307832108</v>
+        <v>0.06951906899985034</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01171141309507613</v>
+        <v>0.01473246061718175</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03613202364402498</v>
+        <v>0.02849025567091487</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05961657802207439</v>
+        <v>0.03579485763336387</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009634556140587995</v>
+        <v>0.04031632314786728</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0007763744292537574</v>
+        <v>0.009471176158913405</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04998061769114539</v>
+        <v>0.05127918528592419</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0172954955625468</v>
+        <v>0.04250060719579395</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03456581795939112</v>
+        <v>0.02403493028521995</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06524165414348856</v>
+        <v>0.04859634049020808</v>
       </c>
       <c r="T16" t="n">
-        <v>0.07055655643069947</v>
+        <v>0.07049951721572729</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03458551767428186</v>
+        <v>0.003607064959992941</v>
       </c>
       <c r="V16" t="n">
-        <v>0.05797213513083826</v>
+        <v>0.03571975524974316</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07229304032626621</v>
+        <v>0.07358606607602106</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06039482242318076</v>
+        <v>0.02950574527884937</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06119428664600553</v>
+        <v>0.04739860690628252</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.004536360591279325</v>
+        <v>0.006995757869838517</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.003965549096863013</v>
+        <v>0.02653244094285723</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.06104880878331229</v>
+        <v>0.06796443833828023</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.06863765413944703</v>
+        <v>0.01504897265267102</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.02326183814114092</v>
+        <v>0.002275643070433996</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.05874782231225294</v>
+        <v>0.05432870379473773</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.06213743884454772</v>
+        <v>0.04117640197647104</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.01415749010884808</v>
+        <v>0.06538419418236419</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1210531513228685</v>
+        <v>0.1283641395887623</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1070076359518718</v>
+        <v>0.1171501032024812</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003702501464893409</v>
+        <v>0.002433393825484658</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07425094502519303</v>
+        <v>0.03245424452719225</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01429146907716344</v>
+        <v>0.03370641685700869</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07301923373733836</v>
+        <v>0.05393370949992206</v>
       </c>
       <c r="J17" t="n">
-        <v>0.007158546053026171</v>
+        <v>0.0009304527847712107</v>
       </c>
       <c r="K17" t="n">
-        <v>0.004849237361982469</v>
+        <v>0.01656959767528748</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05018510827757453</v>
+        <v>0.04446888531969781</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04091737694584597</v>
+        <v>0.02728550921847149</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05147275200243193</v>
+        <v>0.06155720683438754</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004176207449378854</v>
+        <v>0.05180407943292423</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02639919202450021</v>
+        <v>0.05010566271742615</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02273811859893291</v>
+        <v>0.002836435051463203</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04393953563607454</v>
+        <v>0.002643009496605712</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02288914281485322</v>
+        <v>0.01933481997655844</v>
       </c>
       <c r="T17" t="n">
-        <v>0.08103982571890142</v>
+        <v>0.06651701346507626</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04008515157928943</v>
+        <v>0.06374258379222547</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05771401399558888</v>
+        <v>0.00553655304425345</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0467980096877151</v>
+        <v>0.02815495483838019</v>
       </c>
       <c r="X17" t="n">
-        <v>0.07585140565257838</v>
+        <v>0.05817290326281271</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03883469079912117</v>
+        <v>0.05729227141340353</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.007896885467908408</v>
+        <v>0.04942671065598251</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03106198220519581</v>
+        <v>0.0515147643661713</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05918534291079355</v>
+        <v>0.01757526385776972</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0005521176234050368</v>
+        <v>0.0401216381778448</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.030833305474517</v>
+        <v>0.06656673564534492</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01272796094247859</v>
+        <v>0.00308555414133382</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0670663891214419</v>
+        <v>0.06035056559187871</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0103635523518763</v>
+        <v>0.03187906453032163</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.130052095579332</v>
+        <v>0.1579292875863798</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.09215466105202955</v>
+        <v>0.09225838566427748</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01818415574673585</v>
+        <v>0.02766240893779022</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01321997525691459</v>
+        <v>0.004348726975396684</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007405537305842263</v>
+        <v>0.01477328280000282</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02555336080959583</v>
+        <v>0.06792634751258175</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07333465988651339</v>
+        <v>0.04280248049878532</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007444415373529314</v>
+        <v>0.006501885729038311</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01123620126008919</v>
+        <v>0.004704508300195575</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05590309623976101</v>
+        <v>0.04003553021482985</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05080324186649683</v>
+        <v>0.05442449297845403</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01987144813208249</v>
+        <v>0.00504393105166114</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01525176428792468</v>
+        <v>0.003996843316755557</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04706512171682323</v>
+        <v>0.005923982236108806</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07581273052197736</v>
+        <v>0.06436009321679084</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04832192974223105</v>
+        <v>0.04911664687173482</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03247283739196026</v>
+        <v>0.08064968907582708</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02310195714150311</v>
+        <v>0.005612675399852413</v>
       </c>
       <c r="V18" t="n">
-        <v>0.05858027900296494</v>
+        <v>0.07745342864769042</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0478529939920417</v>
+        <v>0.05664403070616907</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02988614773228098</v>
+        <v>0.03237445471144612</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04281365524834716</v>
+        <v>0.07346428958120953</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02158356617809617</v>
+        <v>0.0116587152423621</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.05275757942662658</v>
+        <v>0.05594307142109189</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0523796905924953</v>
+        <v>0.05693168719883652</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.04926452736997265</v>
+        <v>0.03922307264534457</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01784677465872486</v>
+        <v>0.02532801868211116</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.07745993129809442</v>
+        <v>0.07665291997900321</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.003543302231860662</v>
+        <v>0.01301137909402732</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.02771410316377235</v>
+        <v>0.003431406974902994</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.02167403824249554</v>
+        <v>-0.003529713647506331</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1104142777055829</v>
+        <v>0.109442320624287</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03925931485743016</v>
+        <v>0.04842571105665299</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0010684443128783</v>
+        <v>0.021530337501059</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04691319828102997</v>
+        <v>0.01130763279472478</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06209518898711106</v>
+        <v>0.02365187957631827</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008648028223853717</v>
+        <v>0.01067123920522669</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0308279004186956</v>
+        <v>0.000558193010872628</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03502760132444373</v>
+        <v>0.06925135641541545</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001626603861646997</v>
+        <v>0.05558780455944715</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04852924227612532</v>
+        <v>0.03725322237021143</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0533085256679478</v>
+        <v>0.004294950555876816</v>
       </c>
       <c r="P19" t="n">
-        <v>0.09254810782121987</v>
+        <v>0.07520568856386148</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01521352371611225</v>
+        <v>0.07643749488929046</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03588373538986574</v>
+        <v>0.001694173326337055</v>
       </c>
       <c r="S19" t="n">
-        <v>0.006402862493109901</v>
+        <v>0.02687395335023965</v>
       </c>
       <c r="T19" t="n">
-        <v>0.003045046348007448</v>
+        <v>0.03963767584720908</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01625885912088148</v>
+        <v>0.01123001233606502</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02658768737555665</v>
+        <v>0.02121473637549481</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03964781043390493</v>
+        <v>0.03555580291718049</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0548159363819445</v>
+        <v>0.006832708640251657</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01020176204062349</v>
+        <v>0.03818479206408162</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0427928602693078</v>
+        <v>0.05857061065100633</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07665729036112298</v>
+        <v>0.0757975929181936</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02075407769482505</v>
+        <v>0.02928943870364725</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.05403801937463538</v>
+        <v>0.06664644001481539</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.08217261405797945</v>
+        <v>0.05521988946033671</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01146171349467227</v>
+        <v>0.01532446686943897</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.08397762231526336</v>
+        <v>0.06636801633879519</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.000236423099804799</v>
+        <v>0.01738417968795027</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.07169465151351899</v>
+        <v>0.05087740200659058</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1073700420480821</v>
+        <v>0.1064908014522729</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05042145161646188</v>
+        <v>0.0321096046938814</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003422971541998311</v>
+        <v>0.001058190712994856</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06876739051342706</v>
+        <v>0.009474202460027413</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001187175336111465</v>
+        <v>0.01316626127125748</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08110608970258823</v>
+        <v>0.02857777488471419</v>
       </c>
       <c r="K20" t="n">
-        <v>0.019697363407543</v>
+        <v>0.02955299984149571</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0157114838851395</v>
+        <v>0.03618952150835109</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04058808042861338</v>
+        <v>0.02061175191818645</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00173261729207046</v>
+        <v>0.04228023134088535</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0136507816545311</v>
+        <v>0.02566723780906598</v>
       </c>
       <c r="P20" t="n">
-        <v>0.001620641102906411</v>
+        <v>0.05074705341744668</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02803924787032774</v>
+        <v>0.01236629822943523</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01640836698774754</v>
+        <v>0.05819544408991392</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01873177720197717</v>
+        <v>0.01600193542611007</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04205890785120579</v>
+        <v>0.01741633708082596</v>
       </c>
       <c r="U20" t="n">
-        <v>0.002976498705782522</v>
+        <v>0.009109067622663652</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06701740207030288</v>
+        <v>0.07138021865909741</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07869596325947939</v>
+        <v>0.05973723832689128</v>
       </c>
       <c r="X20" t="n">
-        <v>0.04821915077391364</v>
+        <v>0.06879273971482099</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.06831082175657327</v>
+        <v>0.00815175515271723</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.008083272813010993</v>
+        <v>0.01009018733860589</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0004991866411699804</v>
+        <v>0.05331214356453631</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.07033206614621555</v>
+        <v>0.06365819124311861</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04699495980512788</v>
+        <v>0.0433677893199263</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.03241058078416461</v>
+        <v>0.07106528300264774</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0880868060129763</v>
+        <v>0.07430540231257178</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.04371182854928589</v>
+        <v>0.002849628536928743</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.04151711628934796</v>
+        <v>0.07076551052088237</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1240855323053454</v>
+        <v>0.1073912169398027</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1231496037593196</v>
+        <v>0.1195542991662932</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001083371403866506</v>
+        <v>0.04619981159844201</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05665790733070988</v>
+        <v>0.0115613925505546</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0053474218646045</v>
+        <v>0.002093110161737983</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03443616218049531</v>
+        <v>0.01137888063131285</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01367587181867074</v>
+        <v>0.003844925434915258</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06041402229103959</v>
+        <v>0.04733134546241374</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06869864326353294</v>
+        <v>0.05225616730970045</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06763616513635309</v>
+        <v>0.009309205812511451</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04933650142346022</v>
+        <v>0.03939521810121464</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0284070964345593</v>
+        <v>0.01627726465984807</v>
       </c>
       <c r="P21" t="n">
-        <v>0.07477864079574911</v>
+        <v>0.05840399489999041</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03788051539695302</v>
+        <v>0.05842842082061214</v>
       </c>
       <c r="R21" t="n">
-        <v>0.002488175125478301</v>
+        <v>0.06533026517250873</v>
       </c>
       <c r="S21" t="n">
-        <v>0.004215354068240171</v>
+        <v>0.01790187876664967</v>
       </c>
       <c r="T21" t="n">
-        <v>0.005450385806347573</v>
+        <v>0.03473691678750622</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02618095063624112</v>
+        <v>0.07760529996477268</v>
       </c>
       <c r="V21" t="n">
-        <v>0.04092128865168804</v>
+        <v>0.02048252079894866</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0730429429737099</v>
+        <v>0.02636373873770386</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0226631632680045</v>
+        <v>9.847425537270735e-06</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05253286522643356</v>
+        <v>0.0414464190249835</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.008783385427669517</v>
+        <v>0.07784550981608866</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07481717136857303</v>
+        <v>0.06810631953675977</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.008606038453529072</v>
+        <v>0.006082862841177903</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.02473177036193808</v>
+        <v>0.03210139255914086</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.06459309032986009</v>
+        <v>0.05511904646161764</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01320674955954332</v>
+        <v>0.06122001929063089</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.07078276555992323</v>
+        <v>0.05698324819228198</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.008631583842826246</v>
+        <v>0.002184977180438034</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.07588283420200163</v>
+        <v>0.09975476302806766</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1119794679680624</v>
+        <v>0.1113415914758138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0639055641595785</v>
+        <v>0.04428087526778981</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01116352797981947</v>
+        <v>0.0370240822060818</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06653016984227038</v>
+        <v>0.03095924333276204</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002426429181931383</v>
+        <v>0.003397093577611432</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01410476402242279</v>
+        <v>0.04342554814878269</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03173736278230685</v>
+        <v>0.007072315172702832</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07434327575666468</v>
+        <v>0.01801731847116167</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01473634009089752</v>
+        <v>0.02199668880463477</v>
       </c>
       <c r="N22" t="n">
-        <v>0.07424923316619823</v>
+        <v>0.001311012054825722</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007738886446070757</v>
+        <v>0.0006206166563525944</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07251916752427431</v>
+        <v>0.008805125189921209</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01232917850378298</v>
+        <v>0.0335758501354761</v>
       </c>
       <c r="R22" t="n">
-        <v>0.03037176553199566</v>
+        <v>0.01681759591355521</v>
       </c>
       <c r="S22" t="n">
-        <v>0.009811315735864226</v>
+        <v>0.08083615789897164</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07906897786254356</v>
+        <v>0.05133011243899453</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01250665875603328</v>
+        <v>0.004132983664261766</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0611918825449342</v>
+        <v>0.09173053711652293</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07764662268123242</v>
+        <v>0.04940371426521929</v>
       </c>
       <c r="X22" t="n">
-        <v>0.007283208265898797</v>
+        <v>0.04516532593567377</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03631785193380296</v>
+        <v>0.02991591497859897</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.007120095414032468</v>
+        <v>0.02621197777224084</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.04191116932697594</v>
+        <v>0.02810955570830912</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.05267883249678697</v>
+        <v>0.09790623509189461</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.03409626982960642</v>
+        <v>0.04387195685060816</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.02471437497563946</v>
+        <v>0.01322998150576906</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.01523161149231715</v>
+        <v>0.04276473545206272</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.01721185334790757</v>
+        <v>0.06489841708158127</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.04705361034821124</v>
+        <v>0.06318902930763354</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.203281806123856</v>
+        <v>0.1845577929680859</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1232544091571802</v>
+        <v>0.1235131236536603</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06125285794281198</v>
+        <v>0.06129159278971481</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02385573755172439</v>
+        <v>0.001300786082437815</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02422011469660006</v>
+        <v>0.01757085003448517</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03154651303127829</v>
+        <v>0.01705225213075446</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06557880755914317</v>
+        <v>0.06074072227722714</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01810375225295885</v>
+        <v>0.06271747780560036</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03078752348557188</v>
+        <v>0.0350191834251197</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02094011173466857</v>
+        <v>0.03517933386521525</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03036158993382761</v>
+        <v>0.01901249950432184</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04014714980021755</v>
+        <v>0.008254731085026888</v>
       </c>
       <c r="P23" t="n">
-        <v>0.002041233456098719</v>
+        <v>0.02124601507397925</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06822611715258574</v>
+        <v>0.05188311598367917</v>
       </c>
       <c r="R23" t="n">
-        <v>0.005993984532988484</v>
+        <v>0.05139084165626782</v>
       </c>
       <c r="S23" t="n">
-        <v>0.006580055634798494</v>
+        <v>0.02865356475504595</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03295652611961563</v>
+        <v>0.06586100234357872</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01635478964194865</v>
+        <v>0.06381290347613222</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02443579237586331</v>
+        <v>0.04445151106066365</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04231926547928729</v>
+        <v>0.05534062075855479</v>
       </c>
       <c r="X23" t="n">
-        <v>0.08215042970636167</v>
+        <v>0.06125108532859386</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.03991594061836574</v>
+        <v>0.0009806029219482451</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05988053908547756</v>
+        <v>0.05337785461950689</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.05434342587769678</v>
+        <v>0.01433361309941688</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.01812584064793343</v>
+        <v>0.02665778570943392</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.007178643247915368</v>
+        <v>0.001894945631337303</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.07430813712164873</v>
+        <v>0.06527816191006443</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.003852411338361605</v>
+        <v>0.01774100004064477</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.03233719155227741</v>
+        <v>0.005624752802924605</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.08220551842197295</v>
+        <v>0.05208119382832406</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2523183989992882</v>
+        <v>0.2547214070526104</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.09140464363436775</v>
+        <v>0.09022637115063516</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03705745565548524</v>
+        <v>0.007329552335502696</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02089597408224245</v>
+        <v>0.004436249489652795</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01135419444573172</v>
+        <v>0.01308719113178339</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00513034466922169</v>
+        <v>0.007609295519879583</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02436648594216066</v>
+        <v>0.0168031978583245</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007953204170479166</v>
+        <v>0.009479180961950537</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06804572121068657</v>
+        <v>0.01088954741608867</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06037007826386172</v>
+        <v>0.04237420661479228</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05646176373878665</v>
+        <v>0.0852866838603084</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0531212537509049</v>
+        <v>0.02165364332593252</v>
       </c>
       <c r="P24" t="n">
-        <v>0.005129002261973627</v>
+        <v>0.02100914752845758</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0262211022347517</v>
+        <v>0.06859650781804898</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06340776762902592</v>
+        <v>0.08549326825223312</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0118966703228089</v>
+        <v>0.001797200086978446</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03385019595910378</v>
+        <v>0.01766570049908883</v>
       </c>
       <c r="U24" t="n">
-        <v>0.001235513127461202</v>
+        <v>0.03703077561198462</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05912225384366913</v>
+        <v>0.08598599610222375</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01114862044637379</v>
+        <v>0.01725699557835614</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01942099363103067</v>
+        <v>0.05868150479931366</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06601962384858764</v>
+        <v>0.0005795918585540971</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01781098544494765</v>
+        <v>0.006344163041837361</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.07027911325300734</v>
+        <v>0.04823633364970694</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0611707597653773</v>
+        <v>0.06463330800683176</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.03453988623690528</v>
+        <v>0.06734368778289157</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.03048532625408294</v>
+        <v>0.0574936020117138</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.03656822847583205</v>
+        <v>0.04482584260476023</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.05309007967960453</v>
+        <v>0.08751929509909312</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.05384740165589588</v>
+        <v>0.01055833115371068</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.02800339258122476</v>
+        <v>-0.06329967720995883</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1079415520531882</v>
+        <v>0.1196010464737108</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07633592727952618</v>
+        <v>0.075365135585436</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06963107503833338</v>
+        <v>0.06482459831407228</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005803655489511545</v>
+        <v>0.0179038796708628</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04346041157613893</v>
+        <v>0.05710831607276648</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02907982056646213</v>
+        <v>0.05840623680289873</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06548356489350686</v>
+        <v>0.08354116363666722</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08328323726174193</v>
+        <v>0.04941052698167925</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04933856770870299</v>
+        <v>0.002534164272694565</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06034738951507106</v>
+        <v>0.03197771743407664</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004158899409845554</v>
+        <v>0.02195362394992315</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01505746676526109</v>
+        <v>0.01611743640212637</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01991390339067524</v>
+        <v>0.03195936737675178</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02296313612439468</v>
+        <v>0.03130268802036389</v>
       </c>
       <c r="S25" t="n">
-        <v>0.03013547326152923</v>
+        <v>0.06140829259039083</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02148264364029408</v>
+        <v>0.01859852845954899</v>
       </c>
       <c r="U25" t="n">
-        <v>0.001124746895889342</v>
+        <v>0.01851284370659087</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04614592627321592</v>
+        <v>0.005279717253347849</v>
       </c>
       <c r="W25" t="n">
-        <v>0.07117448149564273</v>
+        <v>0.01304101960828308</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01941778796985048</v>
+        <v>0.03396952989824165</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.04172220295769416</v>
+        <v>0.07613752421185808</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.006515984306523146</v>
+        <v>0.04606577787330936</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.05716601892424667</v>
+        <v>0.02187085050598284</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.00790869107306962</v>
+        <v>0.005470789642643819</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.05548458438791787</v>
+        <v>0.02064708800662637</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.08124500632341769</v>
+        <v>0.07253752011918058</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.002205072645808137</v>
+        <v>0.01152442545871207</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.0062087836054359</v>
+        <v>0.004454385540114951</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.007205541220293492</v>
+        <v>0.04807685260484974</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.02664859338819538</v>
+        <v>0.02314636750272854</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1009711781462012</v>
+        <v>0.1007895088075263</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00569239759806485</v>
+        <v>0.02823748096418455</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009430562497797274</v>
+        <v>0.01266664606893833</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02562408935656048</v>
+        <v>0.00513797447313376</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02972394677091391</v>
+        <v>0.01271815872636354</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03653665242564437</v>
+        <v>0.008495709743928473</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01767890792425924</v>
+        <v>0.03225444130559524</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00393556039132383</v>
+        <v>0.05367674486645116</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05316372881428181</v>
+        <v>0.05996132251899512</v>
       </c>
       <c r="N26" t="n">
-        <v>0.06415897601497224</v>
+        <v>0.001710405018208363</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01055648602177354</v>
+        <v>0.0463127715947788</v>
       </c>
       <c r="P26" t="n">
-        <v>0.04953911904712235</v>
+        <v>0.05121057859685687</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.06458130416313212</v>
+        <v>0.04740929858878443</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01351109185313848</v>
+        <v>0.02997819604240409</v>
       </c>
       <c r="S26" t="n">
-        <v>0.037156809471387</v>
+        <v>0.04904186643752918</v>
       </c>
       <c r="T26" t="n">
-        <v>0.007701469733897704</v>
+        <v>0.05255079437769508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04601249079041756</v>
+        <v>0.01116920560388457</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07582517084633202</v>
+        <v>0.06769841605969416</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06256052084113285</v>
+        <v>0.07484081664251169</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01081340997600102</v>
+        <v>0.03312246870772664</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01862834960622112</v>
+        <v>0.01011467557591859</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01861705447255358</v>
+        <v>0.002373123677650262</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.07108180858641265</v>
+        <v>0.05920810955802337</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.07075759184138347</v>
+        <v>0.07181792792750848</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07050431219911939</v>
+        <v>0.07389194784721978</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.003813884113012247</v>
+        <v>0.007790103600069771</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.03221876556484275</v>
+        <v>0.03757829611277642</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.01430210162470624</v>
+        <v>0.002191318990100451</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.07587343745359586</v>
+        <v>0.0568412003730689</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2119075707299745</v>
+        <v>0.1980291360662278</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1158763792826309</v>
+        <v>0.1206461812474511</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05683923462423524</v>
+        <v>0.06627860770143852</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05843642761507969</v>
+        <v>0.06162100601443275</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0008693051855129546</v>
+        <v>0.002696958644595241</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06643857395787613</v>
+        <v>0.06900826329303515</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001840778193074266</v>
+        <v>0.03431012473512846</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07739306490683552</v>
+        <v>0.07961998248615111</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02869725598642415</v>
+        <v>0.04771615346372163</v>
       </c>
       <c r="M27" t="n">
-        <v>0.002316786125348686</v>
+        <v>0.02845158150332789</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03438899737118634</v>
+        <v>0.06231980929633651</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01163097258163412</v>
+        <v>0.02011811155010072</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01023621927767184</v>
+        <v>0.001738229489350601</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05550768329268611</v>
+        <v>0.0171832940972842</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01900878864208521</v>
+        <v>0.0165083297846524</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07681783478817392</v>
+        <v>0.04922902924410975</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03220484351900534</v>
+        <v>0.002256881781561293</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0249875308847195</v>
+        <v>0.02365445591973724</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03359844154006428</v>
+        <v>0.03285364563170607</v>
       </c>
       <c r="W27" t="n">
-        <v>0.07525833837705508</v>
+        <v>0.07994408210308619</v>
       </c>
       <c r="X27" t="n">
-        <v>0.005909874128646242</v>
+        <v>0.0009616180238848659</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05409246117539705</v>
+        <v>0.05304622481915534</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.06267030681055995</v>
+        <v>0.07887564699620429</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.04290072595595768</v>
+        <v>0.05139879867283764</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02811576462440598</v>
+        <v>0.0140450939388029</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.04135547361436262</v>
+        <v>0.003437696189648236</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.003212952054358071</v>
+        <v>0.03044829793582049</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.03056585283444812</v>
+        <v>0.03330236963715442</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.02787141923945904</v>
+        <v>0.02611774906120646</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.03683409269373687</v>
+        <v>0.0128579579855295</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2214821585090581</v>
+        <v>0.224049406658419</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1174248823422172</v>
+        <v>0.1194630005666273</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01804870337113806</v>
+        <v>0.01631539579213387</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02587205939390609</v>
+        <v>0.005422363859182686</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02345270072075566</v>
+        <v>0.05000097657489409</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07040871087836147</v>
+        <v>0.05286773140854388</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005724355935839825</v>
+        <v>0.002943281349087294</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0321075143499742</v>
+        <v>0.05365667039212117</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01740918257385447</v>
+        <v>0.008656684966785464</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06953090357954148</v>
+        <v>0.03772126828136108</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01117653201129082</v>
+        <v>0.01219994135632335</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05317301273477966</v>
+        <v>0.05136728229492379</v>
       </c>
       <c r="P28" t="n">
-        <v>0.054432963782805</v>
+        <v>0.05786829973981875</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02588588977554564</v>
+        <v>0.00359993670341144</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06787570261193394</v>
+        <v>0.06641388427640728</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0151205892418272</v>
+        <v>0.01638793592994619</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02615027487143781</v>
+        <v>0.05605623486679403</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002544788674816637</v>
+        <v>0.006164539710747902</v>
       </c>
       <c r="V28" t="n">
-        <v>0.07209999393961582</v>
+        <v>0.0743115591614799</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06744689489573025</v>
+        <v>0.03154551637767498</v>
       </c>
       <c r="X28" t="n">
-        <v>0.02737975658102598</v>
+        <v>0.02570721196463871</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.04309095150887098</v>
+        <v>0.04205055092357135</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01058561310088643</v>
+        <v>0.01514377348577496</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03561474802262676</v>
+        <v>0.008400138430187023</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.06317313556019769</v>
+        <v>0.05217874179220193</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.05325519450589141</v>
+        <v>0.0412028055595007</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.005210094191498513</v>
+        <v>0.06780253843678689</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.06161380378962429</v>
+        <v>0.0388719578278059</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.006474127761242453</v>
+        <v>0.03709345361530705</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.03514180163498153</v>
+        <v>0.06804932492258821</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.002405485565558058</v>
+        <v>0.02102796231510452</v>
       </c>
     </row>
     <row r="29">
@@ -3590,97 +3590,97 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1349392215756202</v>
+        <v>0.138607962477951</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07656269775899885</v>
+        <v>0.09926065186411992</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08205965835573721</v>
+        <v>0.04523457920094948</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02192014044415844</v>
+        <v>0.03150645479774889</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01993953549895216</v>
+        <v>0.003215988153392611</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05315395960760531</v>
+        <v>0.08143057206946168</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02230415857771782</v>
+        <v>0.01083205507658597</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004629482309588171</v>
+        <v>0.01380963109327429</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01477288452407936</v>
+        <v>0.07053485558596573</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03013566233056503</v>
+        <v>0.03653046922775943</v>
       </c>
       <c r="O29" t="n">
-        <v>0.05337338771783049</v>
+        <v>0.03617960416879951</v>
       </c>
       <c r="P29" t="n">
-        <v>0.02411497162189591</v>
+        <v>0.0004279499041161346</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.007297464099180867</v>
+        <v>0.002130292828231278</v>
       </c>
       <c r="R29" t="n">
-        <v>0.08419548493753061</v>
+        <v>0.02220536318982903</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01644903038178467</v>
+        <v>0.05192664547719679</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02415230881796348</v>
+        <v>0.01760746819006127</v>
       </c>
       <c r="U29" t="n">
-        <v>0.008842359941619716</v>
+        <v>0.01190039863323275</v>
       </c>
       <c r="V29" t="n">
-        <v>0.05358452060157812</v>
+        <v>0.02523875626423979</v>
       </c>
       <c r="W29" t="n">
-        <v>0.038693959096046</v>
+        <v>0.08432339126346083</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01129714698711942</v>
+        <v>0.0008105358555528962</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01529383539615096</v>
+        <v>0.01921305883373333</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06727184061443679</v>
+        <v>0.01236003095005956</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.05987519648532084</v>
+        <v>0.08053490301032896</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.07756850758988994</v>
+        <v>0.05382605316136109</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.02315097363547196</v>
+        <v>0.03276968682060447</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.007892700703707151</v>
+        <v>0.06184472992740183</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.01857108835216364</v>
+        <v>0.03662851952396331</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.02245789238857651</v>
+        <v>0.01117508143175296</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.06043915122433068</v>
+        <v>0.04654227349681632</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1056326141597872</v>
+        <v>0.09881802659244286</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>